--- a/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
@@ -339,31 +339,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>76.204800000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.6496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.716000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.122399999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.613999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.727999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.664399999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,31 +442,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>38.304000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.102400000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.068799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.828799999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.069700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.069700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.867199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.137500000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.115199999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,31 +509,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42.722999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.260799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.206399999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.481600000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.197499999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.197499999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.399500000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.283000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.168999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,31 +576,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.193599999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.8504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.584199999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.564799999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.287999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.665599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.624000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.699200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,31 +642,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.138799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.388900000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.942</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.059699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.494999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.321299999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.923999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.353999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.1128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,31 +709,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.411999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.975200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.665599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.287999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.631999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,31 +775,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.941399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.531000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.138399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.8142</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.3094</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.056000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.747199999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,31 +842,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.486199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.457000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.1496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.795000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.860999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.167200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,31 +909,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.598399999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.652800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.535</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.670800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.1495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.461599999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.953600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.980000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.514600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,31 +976,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.125999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.881599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.552399999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.457000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.927</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,31 +1043,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.246900000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.821200000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.092400000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.102599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.965399999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.851099999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.934199999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.7074</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.339200000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,31 +1110,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.840000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.425200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.425200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.190800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.1584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.828000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.531200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,31 +1177,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.586400000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.6936</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.610400000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.295999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.041000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.196999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.747899999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,31 +1244,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.180200000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.8504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.125999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.860999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,31 +1311,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.888800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.779599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.3965</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.858799999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.155600000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.4724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.728999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.573000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.670500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,31 +1378,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.016400000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.564799999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.463999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.430400000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.817</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.235599999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.269799999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.748599999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,11 +1419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103867136"/>
-        <c:axId val="103869440"/>
+        <c:axId val="109904640"/>
+        <c:axId val="109906944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103867136"/>
+        <c:axId val="109904640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103869440"/>
+        <c:crossAx val="109906944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103869440"/>
+        <c:axId val="109906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1661,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103867136"/>
+        <c:crossAx val="109904640"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1895,31 +1895,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.240000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.469999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.469999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,31 +1997,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.359999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,31 +2063,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,31 +2129,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,31 +2195,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.109999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.220000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,31 +2261,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,31 +2327,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,31 +2393,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,31 +2460,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,31 +2527,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,31 +2594,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,31 +2661,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,31 +2728,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,31 +2795,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,31 +2862,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0700000000000012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,31 +2929,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.140000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,11 +2970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110590976"/>
-        <c:axId val="110597632"/>
+        <c:axId val="110533632"/>
+        <c:axId val="110536192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110590976"/>
+        <c:axId val="110533632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110597632"/>
+        <c:crossAx val="110536192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110597632"/>
+        <c:axId val="110536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3207,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110590976"/>
+        <c:crossAx val="110533632"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3441,31 +3441,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,31 +3543,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.5</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,31 +3609,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,31 +3675,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.5</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,31 +3741,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,31 +3807,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,31 +3873,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,31 +3939,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,31 +4006,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,31 +4073,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,31 +4140,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>61.5</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,31 +4207,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,31 +4274,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>61.5</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,31 +4341,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,31 +4408,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>64.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4475,31 +4475,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,11 +4516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127903616"/>
-        <c:axId val="127922560"/>
+        <c:axId val="110299008"/>
+        <c:axId val="110313472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127903616"/>
+        <c:axId val="110299008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127922560"/>
+        <c:crossAx val="110313472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4644,7 +4644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127922560"/>
+        <c:axId val="110313472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -4754,7 +4754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127903616"/>
+        <c:crossAx val="110299008"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -6312,7 +6312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6322,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:J40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,139 +6510,121 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
-        <v>1814.4</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1387.2</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1398</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1466.4</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1467</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1468.1999999999998</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1468.1999999999998</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1468.8</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1470</v>
-      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="7">
         <f xml:space="preserve"> (B4 * N4) / 1000</f>
-        <v>76.204800000000006</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4) / 1000</f>
-        <v>59.6496</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" si="0"/>
-        <v>58.716000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="0"/>
-        <v>60.122399999999999</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="7">
         <f t="shared" si="0"/>
-        <v>61.613999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="7">
         <f t="shared" si="0"/>
-        <v>58.727999999999994</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="0"/>
-        <v>61.664399999999993</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="7">
         <f t="shared" si="0"/>
-        <v>63.1584</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="7">
         <f t="shared" si="0"/>
-        <v>63.21</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="7" t="e">
         <f>$N6/N6</f>
-        <v>1</v>
-      </c>
-      <c r="AM4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM4" s="7" t="e">
         <f t="shared" ref="AM4:AS4" si="1">$N6/O6</f>
-        <v>1.3079584775086506</v>
-      </c>
-      <c r="AN4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.297854077253219</v>
-      </c>
-      <c r="AO4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2373158756137479</v>
-      </c>
-      <c r="AP4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2368098159509204</v>
-      </c>
-      <c r="AQ4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2357989374744589</v>
-      </c>
-      <c r="AR4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2357989374744589</v>
-      </c>
-      <c r="AS4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" s="7" t="e">
         <f t="shared" si="1"/>
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="AT4" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT4" s="7" t="e">
         <f>$N6/V6</f>
-        <v>1.2342857142857144</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -6650,177 +6632,159 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4">
-        <v>55.5</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4">
-        <v>56.5</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4">
-        <v>56.5</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="4">
-        <v>56.5</v>
+        <v>54</v>
       </c>
       <c r="J5" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="4">
-        <v>684</v>
-      </c>
-      <c r="O5" s="4">
-        <v>680.4</v>
-      </c>
-      <c r="P5" s="4">
-        <v>679.8</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>681.59999999999991</v>
-      </c>
-      <c r="R5" s="4">
-        <v>673.80000000000007</v>
-      </c>
-      <c r="S5" s="4">
-        <v>673.80000000000007</v>
-      </c>
-      <c r="T5" s="4">
-        <v>676.19999999999993</v>
-      </c>
-      <c r="U5" s="4">
-        <v>675</v>
-      </c>
-      <c r="V5" s="4">
-        <v>674.4</v>
-      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="Y5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z5" s="7">
         <f xml:space="preserve"> (B5 * N5) / 1000</f>
-        <v>38.304000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5) / 1000</f>
-        <v>38.102400000000003</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5) / 1000</f>
-        <v>38.068799999999996</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5) / 1000</f>
-        <v>37.828799999999994</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5) / 1000</f>
-        <v>38.069700000000005</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5) / 1000</f>
-        <v>38.069700000000005</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5) / 1000</f>
-        <v>37.867199999999997</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5) / 1000</f>
-        <v>38.137500000000003</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5) / 1000</f>
-        <v>39.115199999999994</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="7" t="e">
         <f>$N7/N7</f>
-        <v>1</v>
-      </c>
-      <c r="AM5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM5" s="7" t="e">
         <f t="shared" ref="AM5" si="10">$N7/O7</f>
-        <v>1.0052910052910053</v>
-      </c>
-      <c r="AN5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN5" s="7" t="e">
         <f t="shared" ref="AN5" si="11">$N7/P7</f>
-        <v>1.0061782877316858</v>
-      </c>
-      <c r="AO5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO5" s="7" t="e">
         <f t="shared" ref="AO5" si="12">$N7/Q7</f>
-        <v>1.0035211267605637</v>
-      </c>
-      <c r="AP5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="7" t="e">
         <f t="shared" ref="AP5" si="13">$N7/R7</f>
-        <v>1.0151380231522706</v>
-      </c>
-      <c r="AQ5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" s="7" t="e">
         <f>$N7/S7</f>
-        <v>1.0151380231522706</v>
-      </c>
-      <c r="AR5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="7" t="e">
         <f t="shared" ref="AR5" si="14">$N7/T7</f>
-        <v>1.0115350488021295</v>
-      </c>
-      <c r="AS5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="7" t="e">
         <f t="shared" ref="AS5" si="15">$N7/U7</f>
-        <v>1.0133333333333334</v>
-      </c>
-      <c r="AT5" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT5" s="7" t="e">
         <f>$N7/V7</f>
-        <v>1.0142348754448398</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N6" s="5">
         <f>N4/60</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ref="O6:V7" si="16">O4/60</f>
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="16"/>
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="16"/>
-        <v>24.44</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" si="16"/>
-        <v>24.45</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="16"/>
-        <v>24.469999999999995</v>
+        <v>0</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="16"/>
-        <v>24.469999999999995</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" si="16"/>
-        <v>24.48</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="16"/>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -6844,39 +6808,39 @@
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N7" s="5">
         <f>N5/60</f>
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="16"/>
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="16"/>
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="16"/>
-        <v>11.359999999999998</v>
+        <v>0</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="16"/>
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="16"/>
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="16"/>
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="16"/>
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="16"/>
-        <v>11.24</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -7024,139 +6988,121 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
-        <v>909</v>
-      </c>
-      <c r="O9" s="3">
-        <v>686.4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>691.8</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>739.2</v>
-      </c>
-      <c r="R9" s="3">
-        <v>741</v>
-      </c>
-      <c r="S9" s="3">
-        <v>741</v>
-      </c>
-      <c r="T9" s="3">
-        <v>724.2</v>
-      </c>
-      <c r="U9" s="3">
-        <v>742.80000000000007</v>
-      </c>
-      <c r="V9" s="3">
-        <v>740.4</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
       <c r="Y9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="7">
         <f xml:space="preserve"> (B9 * N9) / 1000</f>
-        <v>42.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" ref="AA9:AA10" si="17" xml:space="preserve"> (C9 * O9) / 1000</f>
-        <v>32.260799999999996</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" ref="AB9:AB10" si="18" xml:space="preserve"> (D9 * P9) / 1000</f>
-        <v>33.206399999999995</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" ref="AC9:AC10" si="19" xml:space="preserve"> (E9 * Q9) / 1000</f>
-        <v>35.481600000000007</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="7">
         <f t="shared" ref="AD9:AD10" si="20" xml:space="preserve"> (F9 * R9) / 1000</f>
-        <v>35.197499999999998</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE10" si="21" xml:space="preserve"> (G9 * S9) / 1000</f>
-        <v>35.197499999999998</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" ref="AF9:AF10" si="22" xml:space="preserve"> (H9 * T9) / 1000</f>
-        <v>34.399500000000003</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="7">
         <f t="shared" ref="AG9:AG10" si="23" xml:space="preserve"> (I9 * U9) / 1000</f>
-        <v>35.283000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH10" si="24" xml:space="preserve"> (J9 * V9) / 1000</f>
-        <v>35.168999999999997</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AL9" s="7" t="e">
         <f>$N11/N11</f>
-        <v>1</v>
-      </c>
-      <c r="AM9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM9" s="7" t="e">
         <f t="shared" ref="AM9:AM10" si="25">$N11/O11</f>
-        <v>1.3243006993006994</v>
-      </c>
-      <c r="AN9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN9" s="7" t="e">
         <f t="shared" ref="AN9:AN10" si="26">$N11/P11</f>
-        <v>1.3139635732870774</v>
-      </c>
-      <c r="AO9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="7" t="e">
         <f t="shared" ref="AO9:AO10" si="27">$N11/Q11</f>
-        <v>1.2297077922077921</v>
-      </c>
-      <c r="AP9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="7" t="e">
         <f t="shared" ref="AP9:AP10" si="28">$N11/R11</f>
-        <v>1.2267206477732795</v>
-      </c>
-      <c r="AQ9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="7" t="e">
         <f t="shared" ref="AQ9" si="29">$N11/S11</f>
-        <v>1.2267206477732795</v>
-      </c>
-      <c r="AR9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="7" t="e">
         <f t="shared" ref="AR9:AR10" si="30">$N11/T11</f>
-        <v>1.2551781275890639</v>
-      </c>
-      <c r="AS9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="7" t="e">
         <f t="shared" ref="AS9:AS10" si="31">$N11/U11</f>
-        <v>1.2237479806138933</v>
-      </c>
-      <c r="AT9" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT9" s="7" t="e">
         <f>$N11/V11</f>
-        <v>1.2277147487844409</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -7164,177 +7110,159 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4">
         <v>52</v>
       </c>
-      <c r="C10" s="4">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4">
-        <v>53</v>
-      </c>
-      <c r="E10" s="4">
-        <v>56</v>
-      </c>
       <c r="F10" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4">
         <v>54</v>
       </c>
-      <c r="H10" s="4">
-        <v>56</v>
-      </c>
-      <c r="I10" s="4">
-        <v>54.5</v>
-      </c>
       <c r="J10" s="4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="4">
-        <v>676.8</v>
-      </c>
-      <c r="O10" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="R10" s="4">
-        <v>672</v>
-      </c>
-      <c r="S10" s="4">
-        <v>672</v>
-      </c>
-      <c r="T10" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="U10" s="4">
-        <v>672</v>
-      </c>
-      <c r="V10" s="4">
-        <v>673.2</v>
-      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
       <c r="Y10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="7">
         <f xml:space="preserve"> (B10 * N10) / 1000</f>
-        <v>35.193599999999996</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="17"/>
-        <v>34.8504</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="18"/>
-        <v>35.584199999999996</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="19"/>
-        <v>37.564799999999998</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="7">
         <f t="shared" si="20"/>
-        <v>36.96</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="7">
         <f t="shared" si="21"/>
-        <v>36.287999999999997</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="22"/>
-        <v>37.665599999999998</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="7">
         <f t="shared" si="23"/>
-        <v>36.624000000000002</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" si="24"/>
-        <v>37.699200000000005</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AL10" s="7" t="e">
         <f>$N12/N12</f>
-        <v>1</v>
-      </c>
-      <c r="AM10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" s="7" t="e">
         <f t="shared" si="25"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AN10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN10" s="7" t="e">
         <f t="shared" si="26"/>
-        <v>1.0080428954423593</v>
-      </c>
-      <c r="AO10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="7" t="e">
         <f t="shared" si="27"/>
-        <v>1.0089445438282647</v>
-      </c>
-      <c r="AP10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="7" t="e">
         <f t="shared" si="28"/>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AQ10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="7" t="e">
         <f>$N12/S12</f>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AR10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="7" t="e">
         <f t="shared" si="30"/>
-        <v>1.0062444246208742</v>
-      </c>
-      <c r="AS10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="7" t="e">
         <f t="shared" si="31"/>
-        <v>1.0071428571428571</v>
-      </c>
-      <c r="AT10" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="7" t="e">
         <f>$N12/V12</f>
-        <v>1.0053475935828875</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N11" s="5">
         <f>N9/60</f>
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ref="O11:V11" si="32">O9/60</f>
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="32"/>
-        <v>11.53</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="32"/>
-        <v>12.32</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="32"/>
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="32"/>
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="32"/>
-        <v>12.07</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
         <f t="shared" si="32"/>
-        <v>12.38</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" si="32"/>
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -7358,39 +7286,39 @@
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N12" s="5">
         <f>N10/60</f>
-        <v>11.28</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ref="O12:V12" si="33">O10/60</f>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="33"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="33"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="33"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
         <f t="shared" si="33"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="33"/>
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -7538,139 +7466,121 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>54.5</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
-        <v>54.5</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
-        <v>54.5</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="J14" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="3">
-        <v>626.4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>484.20000000000005</v>
-      </c>
-      <c r="P14" s="3">
-        <v>573</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>606.59999999999991</v>
-      </c>
-      <c r="R14" s="3">
-        <v>609</v>
-      </c>
-      <c r="S14" s="3">
-        <v>611.4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>616.79999999999995</v>
-      </c>
-      <c r="U14" s="3">
-        <v>612</v>
-      </c>
-      <c r="V14" s="3">
-        <v>613.20000000000005</v>
-      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
       <c r="Y14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="7">
         <f xml:space="preserve"> (B14 * N14) / 1000</f>
-        <v>34.138799999999996</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="7">
         <f t="shared" ref="AA14:AA15" si="34" xml:space="preserve"> (C14 * O14) / 1000</f>
-        <v>26.388900000000003</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" ref="AB14:AB15" si="35" xml:space="preserve"> (D14 * P14) / 1000</f>
-        <v>30.942</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" ref="AC14:AC15" si="36" xml:space="preserve"> (E14 * Q14) / 1000</f>
-        <v>33.059699999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="7">
         <f t="shared" ref="AD14:AD15" si="37" xml:space="preserve"> (F14 * R14) / 1000</f>
-        <v>33.494999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ref="AE14:AE15" si="38" xml:space="preserve"> (G14 * S14) / 1000</f>
-        <v>33.321299999999994</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" ref="AF14:AF15" si="39" xml:space="preserve"> (H14 * T14) / 1000</f>
-        <v>33.923999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="7">
         <f t="shared" ref="AG14:AG15" si="40" xml:space="preserve"> (I14 * U14) / 1000</f>
-        <v>33.353999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="7">
         <f t="shared" ref="AH14:AH15" si="41" xml:space="preserve"> (J14 * V14) / 1000</f>
-        <v>33.1128</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL14" s="7">
+      <c r="AL14" s="7" t="e">
         <f>$N16/N16</f>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="7" t="e">
         <f t="shared" ref="AM14:AM15" si="42">$N16/O16</f>
-        <v>1.2936802973977695</v>
-      </c>
-      <c r="AN14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" s="7" t="e">
         <f t="shared" ref="AN14:AN15" si="43">$N16/P16</f>
-        <v>1.0931937172774868</v>
-      </c>
-      <c r="AO14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="7" t="e">
         <f t="shared" ref="AO14:AO15" si="44">$N16/Q16</f>
-        <v>1.0326409495548963</v>
-      </c>
-      <c r="AP14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="7" t="e">
         <f t="shared" ref="AP14:AP15" si="45">$N16/R16</f>
-        <v>1.0285714285714285</v>
-      </c>
-      <c r="AQ14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="7" t="e">
         <f t="shared" ref="AQ14" si="46">$N16/S16</f>
-        <v>1.0245338567222768</v>
-      </c>
-      <c r="AR14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="7" t="e">
         <f t="shared" ref="AR14:AR15" si="47">$N16/T16</f>
-        <v>1.0155642023346303</v>
-      </c>
-      <c r="AS14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14" s="7" t="e">
         <f t="shared" ref="AS14:AS15" si="48">$N16/U16</f>
-        <v>1.0235294117647058</v>
-      </c>
-      <c r="AT14" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT14" s="7" t="e">
         <f>$N16/V16</f>
-        <v>1.0215264187866926</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -7678,177 +7588,159 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>54</v>
       </c>
       <c r="G15" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I15" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="4">
-        <v>681</v>
-      </c>
-      <c r="O15" s="4">
-        <v>672</v>
-      </c>
-      <c r="P15" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>672.6</v>
-      </c>
-      <c r="R15" s="4">
-        <v>672</v>
-      </c>
-      <c r="S15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="T15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="U15" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="V15" s="4">
-        <v>672</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z15" s="7">
         <f xml:space="preserve"> (B15 * N15) / 1000</f>
-        <v>35.411999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="34"/>
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="35"/>
-        <v>34.975200000000001</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="7">
         <f t="shared" si="36"/>
-        <v>37.665599999999998</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="7">
         <f t="shared" si="37"/>
-        <v>36.287999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="7">
         <f t="shared" si="38"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="39"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="7">
         <f t="shared" si="40"/>
-        <v>37.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" si="41"/>
-        <v>37.631999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL15" s="7">
+      <c r="AL15" s="7" t="e">
         <f>$N17/N17</f>
-        <v>1</v>
-      </c>
-      <c r="AM15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" s="7" t="e">
         <f t="shared" si="42"/>
-        <v>1.0133928571428572</v>
-      </c>
-      <c r="AN15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" s="7" t="e">
         <f t="shared" si="43"/>
-        <v>1.0124888492417483</v>
-      </c>
-      <c r="AO15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO15" s="7" t="e">
         <f t="shared" si="44"/>
-        <v>1.0124888492417483</v>
-      </c>
-      <c r="AP15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" s="7" t="e">
         <f t="shared" si="45"/>
-        <v>1.0133928571428572</v>
-      </c>
-      <c r="AQ15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ15" s="7" t="e">
         <f>$N17/S17</f>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AR15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR15" s="7" t="e">
         <f t="shared" si="47"/>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AS15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS15" s="7" t="e">
         <f t="shared" si="48"/>
-        <v>1.0142984807864164</v>
-      </c>
-      <c r="AT15" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT15" s="7" t="e">
         <f>$N17/V17</f>
-        <v>1.0133928571428572</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N16" s="5">
         <f>N14/60</f>
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ref="O16:V16" si="49">O14/60</f>
-        <v>8.07</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="49"/>
-        <v>9.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="49"/>
-        <v>10.109999999999998</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="49"/>
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="49"/>
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="49"/>
-        <v>10.28</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="49"/>
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" si="49"/>
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -7872,39 +7764,39 @@
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N17" s="5">
         <f>N15/60</f>
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ref="O17:V17" si="50">O15/60</f>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="50"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="50"/>
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="50"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" si="50"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
         <f t="shared" si="50"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -8052,139 +7944,121 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H19" s="3">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3">
-        <v>56.5</v>
+        <v>73</v>
       </c>
       <c r="J19" s="3">
-        <v>57.5</v>
+        <v>73</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
-        <v>555</v>
-      </c>
-      <c r="O19" s="3">
-        <v>490.2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>483.00000000000006</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>511.2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>540.6</v>
-      </c>
-      <c r="S19" s="3">
-        <v>514.20000000000005</v>
-      </c>
-      <c r="T19" s="3">
-        <v>501</v>
-      </c>
-      <c r="U19" s="3">
-        <v>508.8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>508.8</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
       <c r="Y19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="7">
         <f xml:space="preserve"> (B19 * N19) / 1000</f>
-        <v>31.08</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" ref="AA19:AA20" si="51" xml:space="preserve"> (C19 * O19) / 1000</f>
-        <v>27.941399999999998</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" ref="AB19:AB20" si="52" xml:space="preserve"> (D19 * P19) / 1000</f>
-        <v>27.531000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" ref="AC19:AC20" si="53" xml:space="preserve"> (E19 * Q19) / 1000</f>
-        <v>29.138399999999997</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="7">
         <f t="shared" ref="AD19:AD20" si="54" xml:space="preserve"> (F19 * R19) / 1000</f>
-        <v>30.8142</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ref="AE19:AE20" si="55" xml:space="preserve"> (G19 * S19) / 1000</f>
-        <v>29.3094</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" ref="AF19:AF20" si="56" xml:space="preserve"> (H19 * T19) / 1000</f>
-        <v>28.056000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="7">
         <f t="shared" ref="AG19:AG20" si="57" xml:space="preserve"> (I19 * U19) / 1000</f>
-        <v>28.747199999999999</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" ref="AH19:AH20" si="58" xml:space="preserve"> (J19 * V19) / 1000</f>
-        <v>29.256</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AL19" s="7" t="e">
         <f>$N21/N21</f>
-        <v>1</v>
-      </c>
-      <c r="AM19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM19" s="7" t="e">
         <f t="shared" ref="AM19:AM20" si="59">$N21/O21</f>
-        <v>1.1321909424724603</v>
-      </c>
-      <c r="AN19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN19" s="7" t="e">
         <f t="shared" ref="AN19:AN20" si="60">$N21/P21</f>
-        <v>1.1490683229813663</v>
-      </c>
-      <c r="AO19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO19" s="7" t="e">
         <f t="shared" ref="AO19:AO20" si="61">$N21/Q21</f>
-        <v>1.085680751173709</v>
-      </c>
-      <c r="AP19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="7" t="e">
         <f t="shared" ref="AP19:AP20" si="62">$N21/R21</f>
-        <v>1.0266370699223086</v>
-      </c>
-      <c r="AQ19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="7" t="e">
         <f t="shared" ref="AQ19" si="63">$N21/S21</f>
-        <v>1.0793465577596266</v>
-      </c>
-      <c r="AR19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" s="7" t="e">
         <f t="shared" ref="AR19:AR20" si="64">$N21/T21</f>
-        <v>1.1077844311377245</v>
-      </c>
-      <c r="AS19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS19" s="7" t="e">
         <f t="shared" ref="AS19:AS20" si="65">$N21/U21</f>
-        <v>1.0908018867924527</v>
-      </c>
-      <c r="AT19" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT19" s="7" t="e">
         <f>$N21/V21</f>
-        <v>1.0908018867924527</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -8192,177 +8066,159 @@
         <v>2</v>
       </c>
       <c r="B20" s="4">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G20" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H20" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I20" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J20" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="4">
-        <v>676.19999999999993</v>
-      </c>
-      <c r="O20" s="4">
-        <v>669</v>
-      </c>
-      <c r="P20" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="R20" s="4">
-        <v>669</v>
-      </c>
-      <c r="S20" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="T20" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="U20" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="V20" s="4">
-        <v>669.6</v>
-      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="Y20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="7">
         <f xml:space="preserve"> (B20 * N20) / 1000</f>
-        <v>34.486199999999997</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="51"/>
-        <v>35.457000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="52"/>
-        <v>34.0884</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="53"/>
-        <v>34.1496</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="7">
         <f t="shared" si="54"/>
-        <v>36.795000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" si="55"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="56"/>
-        <v>36.860999999999997</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="7">
         <f t="shared" si="57"/>
-        <v>36.1584</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="7">
         <f t="shared" si="58"/>
-        <v>38.167200000000001</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL20" s="7">
+      <c r="AL20" s="7" t="e">
         <f>$N22/N22</f>
-        <v>1</v>
-      </c>
-      <c r="AM20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM20" s="7" t="e">
         <f t="shared" si="59"/>
-        <v>1.010762331838565</v>
-      </c>
-      <c r="AN20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN20" s="7" t="e">
         <f t="shared" si="60"/>
-        <v>1.0116696588868939</v>
-      </c>
-      <c r="AO20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO20" s="7" t="e">
         <f t="shared" si="61"/>
-        <v>1.0098566308243726</v>
-      </c>
-      <c r="AP20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP20" s="7" t="e">
         <f t="shared" si="62"/>
-        <v>1.010762331838565</v>
-      </c>
-      <c r="AQ20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" s="7" t="e">
         <f>$N22/S22</f>
-        <v>1.0089525514771709</v>
-      </c>
-      <c r="AR20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="7" t="e">
         <f t="shared" si="64"/>
-        <v>1.0089525514771709</v>
-      </c>
-      <c r="AS20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS20" s="7" t="e">
         <f t="shared" si="65"/>
-        <v>1.0098566308243726</v>
-      </c>
-      <c r="AT20" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT20" s="7" t="e">
         <f>$N22/V22</f>
-        <v>1.0098566308243726</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N21" s="5">
         <f>N19/60</f>
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" ref="O21:V21" si="66">O19/60</f>
-        <v>8.17</v>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="66"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="66"/>
-        <v>8.52</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="66"/>
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="66"/>
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="T21" s="5">
         <f t="shared" si="66"/>
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="U21" s="5">
         <f t="shared" si="66"/>
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
         <f t="shared" si="66"/>
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -8386,39 +8242,39 @@
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N22" s="5">
         <f>N20/60</f>
-        <v>11.27</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" ref="O22:V22" si="67">O20/60</f>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="67"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="67"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="67"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="67"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
         <f t="shared" si="67"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -8566,139 +8422,121 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F24" s="3">
-        <v>58.5</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H24" s="3">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I24" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J24" s="3">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="3">
-        <v>544.79999999999995</v>
-      </c>
-      <c r="O24" s="3">
-        <v>494.40000000000003</v>
-      </c>
-      <c r="P24" s="3">
-        <v>435</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>502.80000000000007</v>
-      </c>
-      <c r="R24" s="3">
-        <v>447</v>
-      </c>
-      <c r="S24" s="3">
-        <v>482.4</v>
-      </c>
-      <c r="T24" s="3">
-        <v>499.20000000000005</v>
-      </c>
-      <c r="U24" s="3">
-        <v>483.00000000000006</v>
-      </c>
-      <c r="V24" s="3">
-        <v>449.40000000000003</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="7">
         <f xml:space="preserve"> (B24 * N24) / 1000</f>
-        <v>31.598399999999998</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" ref="AA24:AA25" si="68" xml:space="preserve"> (C24 * O24) / 1000</f>
-        <v>30.652800000000003</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" ref="AB24:AB25" si="69" xml:space="preserve"> (D24 * P24) / 1000</f>
-        <v>26.535</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" ref="AC24:AC25" si="70" xml:space="preserve"> (E24 * Q24) / 1000</f>
-        <v>30.670800000000003</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="7">
         <f t="shared" ref="AD24:AD25" si="71" xml:space="preserve"> (F24 * R24) / 1000</f>
-        <v>26.1495</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ref="AE24:AE25" si="72" xml:space="preserve"> (G24 * S24) / 1000</f>
-        <v>28.461599999999997</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" ref="AF24:AF25" si="73" xml:space="preserve"> (H24 * T24) / 1000</f>
-        <v>28.953600000000002</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="7">
         <f t="shared" ref="AG24:AG25" si="74" xml:space="preserve"> (I24 * U24) / 1000</f>
-        <v>28.980000000000004</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="7">
         <f t="shared" ref="AH24:AH25" si="75" xml:space="preserve"> (J24 * V24) / 1000</f>
-        <v>26.514600000000002</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL24" s="7">
+      <c r="AL24" s="7" t="e">
         <f>$N26/N26</f>
-        <v>1</v>
-      </c>
-      <c r="AM24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM24" s="7" t="e">
         <f t="shared" ref="AM24:AM25" si="76">$N26/O26</f>
-        <v>1.1019417475728155</v>
-      </c>
-      <c r="AN24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN24" s="7" t="e">
         <f t="shared" ref="AN24:AN25" si="77">$N26/P26</f>
-        <v>1.2524137931034482</v>
-      </c>
-      <c r="AO24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="7" t="e">
         <f t="shared" ref="AO24:AO25" si="78">$N26/Q26</f>
-        <v>1.0835322195704056</v>
-      </c>
-      <c r="AP24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="7" t="e">
         <f t="shared" ref="AP24:AP25" si="79">$N26/R26</f>
-        <v>1.2187919463087249</v>
-      </c>
-      <c r="AQ24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="7" t="e">
         <f t="shared" ref="AQ24" si="80">$N26/S26</f>
-        <v>1.1293532338308458</v>
-      </c>
-      <c r="AR24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR24" s="7" t="e">
         <f t="shared" ref="AR24:AR25" si="81">$N26/T26</f>
-        <v>1.0913461538461537</v>
-      </c>
-      <c r="AS24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS24" s="7" t="e">
         <f t="shared" ref="AS24:AS25" si="82">$N26/U26</f>
-        <v>1.1279503105590061</v>
-      </c>
-      <c r="AT24" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT24" s="7" t="e">
         <f>$N26/V26</f>
-        <v>1.2122830440587449</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -8706,177 +8544,159 @@
         <v>2</v>
       </c>
       <c r="B25" s="4">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4">
+        <v>54</v>
+      </c>
+      <c r="G25" s="4">
+        <v>54</v>
+      </c>
+      <c r="H25" s="4">
+        <v>56</v>
+      </c>
+      <c r="I25" s="4">
+        <v>54</v>
+      </c>
+      <c r="J25" s="4">
         <v>50</v>
-      </c>
-      <c r="C25" s="4">
-        <v>50</v>
-      </c>
-      <c r="D25" s="4">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4">
-        <v>52</v>
-      </c>
-      <c r="F25" s="4">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4">
-        <v>52</v>
-      </c>
-      <c r="H25" s="4">
-        <v>53</v>
-      </c>
-      <c r="I25" s="4">
-        <v>53</v>
-      </c>
-      <c r="J25" s="4">
-        <v>55</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="4">
-        <v>675.6</v>
-      </c>
-      <c r="O25" s="4">
-        <v>682.19999999999993</v>
-      </c>
-      <c r="P25" s="4">
-        <v>669</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="R25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="S25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T25" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="U25" s="4">
-        <v>669</v>
-      </c>
-      <c r="V25" s="4">
-        <v>671.4</v>
-      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
       <c r="Y25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="7">
         <f xml:space="preserve"> (B25 * N25) / 1000</f>
-        <v>33.78</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="68"/>
-        <v>34.11</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="69"/>
-        <v>36.125999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="70"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="7">
         <f t="shared" si="71"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" si="72"/>
-        <v>34.881599999999999</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="73"/>
-        <v>35.552399999999992</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="7">
         <f t="shared" si="74"/>
-        <v>35.457000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="7">
         <f t="shared" si="75"/>
-        <v>36.927</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL25" s="7">
+      <c r="AL25" s="7" t="e">
         <f>$N27/N27</f>
-        <v>1</v>
-      </c>
-      <c r="AM25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="7" t="e">
         <f t="shared" si="76"/>
-        <v>0.9903254177660511</v>
-      </c>
-      <c r="AN25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="7" t="e">
         <f t="shared" si="77"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AO25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="7" t="e">
         <f t="shared" si="78"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AP25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="7" t="e">
         <f t="shared" si="79"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AQ25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="7" t="e">
         <f>$N27/S27</f>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AR25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR25" s="7" t="e">
         <f t="shared" si="81"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AS25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS25" s="7" t="e">
         <f t="shared" si="82"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AT25" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT25" s="7" t="e">
         <f>$N27/V27</f>
-        <v>1.0062555853440571</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N26" s="5">
         <f>N24/60</f>
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" ref="O26:V26" si="83">O24/60</f>
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="83"/>
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="83"/>
-        <v>8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="83"/>
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="83"/>
-        <v>8.0399999999999991</v>
+        <v>0</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="83"/>
-        <v>8.32</v>
+        <v>0</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="83"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="83"/>
-        <v>7.49</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -8900,39 +8720,39 @@
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N27" s="5">
         <f>N25/60</f>
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" ref="O27:V27" si="84">O25/60</f>
-        <v>11.37</v>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="84"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="84"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="84"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="84"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -9080,139 +8900,121 @@
         <v>1</v>
       </c>
       <c r="B29" s="3">
-        <v>61.5</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3">
-        <v>63.5</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3">
-        <v>63.5</v>
+        <v>72</v>
       </c>
       <c r="H29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I29" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J29" s="3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
-        <v>540.6</v>
-      </c>
-      <c r="O29" s="3">
-        <v>432.6</v>
-      </c>
-      <c r="P29" s="3">
-        <v>334.8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>430.2</v>
-      </c>
-      <c r="R29" s="3">
-        <v>440.4</v>
-      </c>
-      <c r="S29" s="3">
-        <v>438.59999999999997</v>
-      </c>
-      <c r="T29" s="3">
-        <v>443.4</v>
-      </c>
-      <c r="U29" s="3">
-        <v>439.8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>442.8</v>
-      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
       <c r="Y29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z29" s="7">
         <f xml:space="preserve"> (B29 * N29) / 1000</f>
-        <v>33.246900000000004</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" ref="AA29:AA30" si="85" xml:space="preserve"> (C29 * O29) / 1000</f>
-        <v>26.821200000000001</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" ref="AB29:AB30" si="86" xml:space="preserve"> (D29 * P29) / 1000</f>
-        <v>21.092400000000001</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="7">
         <f t="shared" ref="AC29:AC30" si="87" xml:space="preserve"> (E29 * Q29) / 1000</f>
-        <v>27.102599999999999</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="7">
         <f t="shared" ref="AD29:AD30" si="88" xml:space="preserve"> (F29 * R29) / 1000</f>
-        <v>27.965399999999999</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="7">
         <f t="shared" ref="AE29:AE30" si="89" xml:space="preserve"> (G29 * S29) / 1000</f>
-        <v>27.851099999999999</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" ref="AF29:AF30" si="90" xml:space="preserve"> (H29 * T29) / 1000</f>
-        <v>27.934199999999997</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="7">
         <f t="shared" ref="AG29:AG30" si="91" xml:space="preserve"> (I29 * U29) / 1000</f>
-        <v>27.7074</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="7">
         <f t="shared" ref="AH29:AH30" si="92" xml:space="preserve"> (J29 * V29) / 1000</f>
-        <v>28.339200000000002</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL29" s="7">
+      <c r="AL29" s="7" t="e">
         <f>$N31/N31</f>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM29" s="7" t="e">
         <f t="shared" ref="AM29:AM30" si="93">$N31/O31</f>
-        <v>1.2496532593619971</v>
-      </c>
-      <c r="AN29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN29" s="7" t="e">
         <f t="shared" ref="AN29:AN30" si="94">$N31/P31</f>
-        <v>1.6146953405017921</v>
-      </c>
-      <c r="AO29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="7" t="e">
         <f t="shared" ref="AO29:AO30" si="95">$N31/Q31</f>
-        <v>1.2566248256624826</v>
-      </c>
-      <c r="AP29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="7" t="e">
         <f t="shared" ref="AP29:AP30" si="96">$N31/R31</f>
-        <v>1.2275204359673024</v>
-      </c>
-      <c r="AQ29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="7" t="e">
         <f t="shared" ref="AQ29" si="97">$N31/S31</f>
-        <v>1.2325581395348837</v>
-      </c>
-      <c r="AR29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR29" s="7" t="e">
         <f t="shared" ref="AR29:AR30" si="98">$N31/T31</f>
-        <v>1.2192151556156969</v>
-      </c>
-      <c r="AS29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS29" s="7" t="e">
         <f t="shared" ref="AS29:AS30" si="99">$N31/U31</f>
-        <v>1.2291950886766712</v>
-      </c>
-      <c r="AT29" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT29" s="7" t="e">
         <f>$N31/V31</f>
-        <v>1.2208672086720866</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -9220,177 +9022,159 @@
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G30" s="4">
         <v>54</v>
       </c>
       <c r="H30" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30" s="4">
         <v>56</v>
       </c>
       <c r="J30" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="4">
-        <v>676.8</v>
-      </c>
-      <c r="O30" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="P30" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="R30" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="S30" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="T30" s="4">
-        <v>669.6</v>
-      </c>
-      <c r="U30" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="V30" s="4">
-        <v>670.2</v>
-      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
       <c r="Y30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="7">
         <f xml:space="preserve"> (B30 * N30) / 1000</f>
-        <v>33.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="85"/>
-        <v>33.54</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="86"/>
-        <v>35.425200000000004</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="87"/>
-        <v>35.425200000000004</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="7">
         <f t="shared" si="88"/>
-        <v>36.190800000000003</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" si="89"/>
-        <v>36.1584</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="90"/>
-        <v>36.828000000000003</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="7">
         <f t="shared" si="91"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="7">
         <f t="shared" si="92"/>
-        <v>37.531200000000005</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL30" s="7">
+      <c r="AL30" s="7" t="e">
         <f>$N32/N32</f>
-        <v>1</v>
-      </c>
-      <c r="AM30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="7" t="e">
         <f t="shared" si="93"/>
-        <v>1.0089445438282647</v>
-      </c>
-      <c r="AN30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="7" t="e">
         <f t="shared" si="94"/>
-        <v>1.0125673249551164</v>
-      </c>
-      <c r="AO30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="7" t="e">
         <f t="shared" si="95"/>
-        <v>1.0125673249551164</v>
-      </c>
-      <c r="AP30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="7" t="e">
         <f t="shared" si="96"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AQ30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="7" t="e">
         <f>$N32/S32</f>
-        <v>1.010752688172043</v>
-      </c>
-      <c r="AR30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="7" t="e">
         <f t="shared" si="98"/>
-        <v>1.010752688172043</v>
-      </c>
-      <c r="AS30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS30" s="7" t="e">
         <f t="shared" si="99"/>
-        <v>1.0098478066248879</v>
-      </c>
-      <c r="AT30" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="7" t="e">
         <f>$N32/V32</f>
-        <v>1.0098478066248879</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N31" s="5">
         <f>N29/60</f>
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" ref="O31:V31" si="100">O29/60</f>
-        <v>7.21</v>
+        <v>0</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="100"/>
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="100"/>
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="100"/>
-        <v>7.34</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="100"/>
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="100"/>
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="100"/>
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" si="100"/>
-        <v>7.38</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
@@ -9414,39 +9198,39 @@
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N32" s="5">
         <f>N30/60</f>
-        <v>11.28</v>
+        <v>0</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" ref="O32:V32" si="101">O30/60</f>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="101"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="101"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="101"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="101"/>
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="101"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -9594,139 +9378,121 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>61.5</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3">
-        <v>65.5</v>
+        <v>72</v>
       </c>
       <c r="E34" s="3">
-        <v>65.5</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3">
-        <v>65.5</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H34" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I34" s="3">
-        <v>64.5</v>
+        <v>70</v>
       </c>
       <c r="J34" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="3">
-        <v>513.6</v>
-      </c>
-      <c r="O34" s="3">
-        <v>421.2</v>
-      </c>
-      <c r="P34" s="3">
-        <v>331.2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>436.8</v>
-      </c>
-      <c r="R34" s="3">
-        <v>432</v>
-      </c>
-      <c r="S34" s="3">
-        <v>431.40000000000003</v>
-      </c>
-      <c r="T34" s="3">
-        <v>433.8</v>
-      </c>
-      <c r="U34" s="3">
-        <v>430.2</v>
-      </c>
-      <c r="V34" s="3">
-        <v>432</v>
-      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
       <c r="Y34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z34" s="7">
         <f xml:space="preserve"> (B34 * N34) / 1000</f>
-        <v>31.586400000000001</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" ref="AA34:AA35" si="102" xml:space="preserve"> (C34 * O34) / 1000</f>
-        <v>27.378</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" ref="AB34:AB35" si="103" xml:space="preserve"> (D34 * P34) / 1000</f>
-        <v>21.6936</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" ref="AC34:AC35" si="104" xml:space="preserve"> (E34 * Q34) / 1000</f>
-        <v>28.610400000000002</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="7">
         <f t="shared" ref="AD34:AD35" si="105" xml:space="preserve"> (F34 * R34) / 1000</f>
-        <v>28.295999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ref="AE34:AE35" si="106" xml:space="preserve"> (G34 * S34) / 1000</f>
-        <v>28.041000000000004</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" ref="AF34:AF35" si="107" xml:space="preserve"> (H34 * T34) / 1000</f>
-        <v>28.196999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="7">
         <f t="shared" ref="AG34:AG35" si="108" xml:space="preserve"> (I34 * U34) / 1000</f>
-        <v>27.747899999999998</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="7">
         <f t="shared" ref="AH34:AH35" si="109" xml:space="preserve"> (J34 * V34) / 1000</f>
-        <v>28.08</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL34" s="7">
+      <c r="AL34" s="7" t="e">
         <f>$N36/N36</f>
-        <v>1</v>
-      </c>
-      <c r="AM34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM34" s="7" t="e">
         <f t="shared" ref="AM34:AM35" si="110">$N36/O36</f>
-        <v>1.2193732193732194</v>
-      </c>
-      <c r="AN34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN34" s="7" t="e">
         <f t="shared" ref="AN34:AN35" si="111">$N36/P36</f>
-        <v>1.5507246376811596</v>
-      </c>
-      <c r="AO34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="7" t="e">
         <f t="shared" ref="AO34:AO35" si="112">$N36/Q36</f>
-        <v>1.1758241758241759</v>
-      </c>
-      <c r="AP34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="7" t="e">
         <f t="shared" ref="AP34:AP35" si="113">$N36/R36</f>
-        <v>1.1888888888888889</v>
-      </c>
-      <c r="AQ34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="7" t="e">
         <f t="shared" ref="AQ34" si="114">$N36/S36</f>
-        <v>1.1905424200278165</v>
-      </c>
-      <c r="AR34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="7" t="e">
         <f t="shared" ref="AR34:AR35" si="115">$N36/T36</f>
-        <v>1.1839557399723375</v>
-      </c>
-      <c r="AS34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS34" s="7" t="e">
         <f t="shared" ref="AS34:AS35" si="116">$N36/U36</f>
-        <v>1.1938633193863319</v>
-      </c>
-      <c r="AT34" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT34" s="7" t="e">
         <f>$N36/V36</f>
-        <v>1.1888888888888889</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -9734,177 +9500,159 @@
         <v>2</v>
       </c>
       <c r="B35" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E35" s="4">
         <v>54</v>
       </c>
       <c r="F35" s="4">
+        <v>54</v>
+      </c>
+      <c r="G35" s="4">
+        <v>54</v>
+      </c>
+      <c r="H35" s="4">
+        <v>54</v>
+      </c>
+      <c r="I35" s="4">
         <v>55</v>
       </c>
-      <c r="G35" s="4">
-        <v>57</v>
-      </c>
-      <c r="H35" s="4">
-        <v>57</v>
-      </c>
-      <c r="I35" s="4">
-        <v>57</v>
-      </c>
       <c r="J35" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="4">
-        <v>675.6</v>
-      </c>
-      <c r="O35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="P35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>669</v>
-      </c>
-      <c r="R35" s="4">
-        <v>670.2</v>
-      </c>
-      <c r="S35" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T35" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="U35" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="V35" s="4">
-        <v>671.4</v>
-      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
       <c r="Y35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="7">
         <f xml:space="preserve"> (B35 * N35) / 1000</f>
-        <v>33.78</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="7">
         <f t="shared" si="102"/>
-        <v>34.180200000000006</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="103"/>
-        <v>34.8504</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="7">
         <f t="shared" si="104"/>
-        <v>36.125999999999998</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="7">
         <f t="shared" si="105"/>
-        <v>36.860999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="7">
         <f t="shared" si="106"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" si="107"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="7">
         <f t="shared" si="108"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="7">
         <f t="shared" si="109"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL35" s="7">
+      <c r="AL35" s="7" t="e">
         <f>$N37/N37</f>
-        <v>1</v>
-      </c>
-      <c r="AM35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM35" s="7" t="e">
         <f t="shared" si="110"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AN35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN35" s="7" t="e">
         <f t="shared" si="111"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AO35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="7" t="e">
         <f t="shared" si="112"/>
-        <v>1.0098654708520178</v>
-      </c>
-      <c r="AP35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="7" t="e">
         <f t="shared" si="113"/>
-        <v>1.0080572963294538</v>
-      </c>
-      <c r="AQ35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="7" t="e">
         <f>$N37/S37</f>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AR35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="7" t="e">
         <f t="shared" si="115"/>
-        <v>1.0062555853440571</v>
-      </c>
-      <c r="AS35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS35" s="7" t="e">
         <f t="shared" si="116"/>
-        <v>1.0071556350626119</v>
-      </c>
-      <c r="AT35" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT35" s="7" t="e">
         <f>$N37/V37</f>
-        <v>1.0062555853440571</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N36" s="5">
         <f>N34/60</f>
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" ref="O36:V36" si="117">O34/60</f>
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="117"/>
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="117"/>
-        <v>7.28</v>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="117"/>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="117"/>
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" si="117"/>
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="U36" s="5">
         <f t="shared" si="117"/>
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="V36" s="5">
         <f t="shared" si="117"/>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -9928,39 +9676,39 @@
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N37" s="5">
         <f>N35/60</f>
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" ref="O37:V37" si="118">O35/60</f>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="118"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="118"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="118"/>
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="118"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="118"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="118"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="118"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -10108,139 +9856,121 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>64.5</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3">
-        <v>67.5</v>
+        <v>72</v>
       </c>
       <c r="E39" s="3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F39" s="3">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G39" s="3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H39" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I39" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J39" s="3">
-        <v>64.5</v>
+        <v>72</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="3">
-        <v>494.40000000000003</v>
-      </c>
-      <c r="O39" s="3">
-        <v>390.59999999999997</v>
-      </c>
-      <c r="P39" s="3">
-        <v>331.8</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>391.8</v>
-      </c>
-      <c r="R39" s="3">
-        <v>426.6</v>
-      </c>
-      <c r="S39" s="3">
-        <v>431.40000000000003</v>
-      </c>
-      <c r="T39" s="3">
-        <v>426.6</v>
-      </c>
-      <c r="U39" s="3">
-        <v>424.20000000000005</v>
-      </c>
-      <c r="V39" s="3">
-        <v>429</v>
-      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
       <c r="Y39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z39" s="7">
         <f xml:space="preserve"> (B39 * N39) / 1000</f>
-        <v>31.888800000000003</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="7">
         <f t="shared" ref="AA39:AA40" si="119" xml:space="preserve"> (C39 * O39) / 1000</f>
-        <v>25.779599999999999</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="7">
         <f t="shared" ref="AB39:AB40" si="120" xml:space="preserve"> (D39 * P39) / 1000</f>
-        <v>22.3965</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="7">
         <f t="shared" ref="AC39:AC40" si="121" xml:space="preserve"> (E39 * Q39) / 1000</f>
-        <v>25.858799999999999</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="7">
         <f t="shared" ref="AD39:AD40" si="122" xml:space="preserve"> (F39 * R39) / 1000</f>
-        <v>28.155600000000003</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="7">
         <f t="shared" ref="AE39:AE40" si="123" xml:space="preserve"> (G39 * S39) / 1000</f>
-        <v>28.4724</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="7">
         <f t="shared" ref="AF39:AF40" si="124" xml:space="preserve"> (H39 * T39) / 1000</f>
-        <v>27.728999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="7">
         <f t="shared" ref="AG39:AG40" si="125" xml:space="preserve"> (I39 * U39) / 1000</f>
-        <v>27.573000000000004</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="7">
         <f t="shared" ref="AH39:AH40" si="126" xml:space="preserve"> (J39 * V39) / 1000</f>
-        <v>27.670500000000001</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL39" s="7">
+      <c r="AL39" s="7" t="e">
         <f>$N41/N41</f>
-        <v>1</v>
-      </c>
-      <c r="AM39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM39" s="7" t="e">
         <f t="shared" ref="AM39:AM40" si="127">$N41/O41</f>
-        <v>1.2657450076804917</v>
-      </c>
-      <c r="AN39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN39" s="7" t="e">
         <f t="shared" ref="AN39:AN40" si="128">$N41/P41</f>
-        <v>1.4900542495479203</v>
-      </c>
-      <c r="AO39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO39" s="7" t="e">
         <f t="shared" ref="AO39:AO40" si="129">$N41/Q41</f>
-        <v>1.2618683001531394</v>
-      </c>
-      <c r="AP39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="7" t="e">
         <f t="shared" ref="AP39:AP40" si="130">$N41/R41</f>
-        <v>1.1589310829817159</v>
-      </c>
-      <c r="AQ39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" s="7" t="e">
         <f t="shared" ref="AQ39" si="131">$N41/S41</f>
-        <v>1.1460361613351877</v>
-      </c>
-      <c r="AR39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" s="7" t="e">
         <f t="shared" ref="AR39:AR40" si="132">$N41/T41</f>
-        <v>1.1589310829817159</v>
-      </c>
-      <c r="AS39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS39" s="7" t="e">
         <f t="shared" ref="AS39:AS40" si="133">$N41/U41</f>
-        <v>1.1654879773691653</v>
-      </c>
-      <c r="AT39" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT39" s="7" t="e">
         <f>$N41/V41</f>
-        <v>1.1524475524475524</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -10248,215 +9978,197 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D40" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G40" s="4">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H40" s="4">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I40" s="4">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J40" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="4">
-        <v>679.2</v>
-      </c>
-      <c r="O40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="P40" s="4">
-        <v>669</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>668.40000000000009</v>
-      </c>
-      <c r="R40" s="4">
-        <v>681</v>
-      </c>
-      <c r="S40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="T40" s="4">
-        <v>670.8</v>
-      </c>
-      <c r="U40" s="4">
-        <v>671.4</v>
-      </c>
-      <c r="V40" s="4">
-        <v>679.8</v>
-      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
       <c r="Y40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="7">
         <f xml:space="preserve"> (B40 * N40) / 1000</f>
-        <v>37.016400000000004</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="7">
         <f t="shared" si="119"/>
-        <v>37.564799999999998</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="7">
         <f t="shared" si="120"/>
-        <v>37.463999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="7">
         <f t="shared" si="121"/>
-        <v>37.430400000000006</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="7">
         <f t="shared" si="122"/>
-        <v>38.817</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="7">
         <f t="shared" si="123"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="7">
         <f t="shared" si="124"/>
-        <v>38.235599999999998</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="7">
         <f t="shared" si="125"/>
-        <v>38.269799999999996</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="7">
         <f t="shared" si="126"/>
-        <v>38.748599999999996</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL40" s="7">
+      <c r="AL40" s="7" t="e">
         <f>$N42/N42</f>
-        <v>1</v>
-      </c>
-      <c r="AM40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM40" s="7" t="e">
         <f t="shared" si="127"/>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AN40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN40" s="7" t="e">
         <f t="shared" si="128"/>
-        <v>1.0152466367713004</v>
-      </c>
-      <c r="AO40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO40" s="7" t="e">
         <f t="shared" si="129"/>
-        <v>1.016157989228007</v>
-      </c>
-      <c r="AP40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP40" s="7" t="e">
         <f t="shared" si="130"/>
-        <v>0.99735682819383265</v>
-      </c>
-      <c r="AQ40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40" s="7" t="e">
         <f>$N42/S42</f>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AR40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR40" s="7" t="e">
         <f t="shared" si="132"/>
-        <v>1.0125223613595706</v>
-      </c>
-      <c r="AS40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS40" s="7" t="e">
         <f t="shared" si="133"/>
-        <v>1.0116175156389635</v>
-      </c>
-      <c r="AT40" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT40" s="7" t="e">
         <f>$N42/V42</f>
-        <v>0.99911738746690204</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N41" s="5">
         <f>N39/60</f>
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" ref="O41:V41" si="134">O39/60</f>
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="134"/>
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="134"/>
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="134"/>
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="134"/>
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="134"/>
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="U41" s="5">
         <f t="shared" si="134"/>
-        <v>7.0700000000000012</v>
+        <v>0</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="134"/>
-        <v>7.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N42" s="5">
         <f>N40/60</f>
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" ref="O42:V42" si="135">O40/60</f>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="P42" s="5">
         <f t="shared" si="135"/>
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="135"/>
-        <v>11.140000000000002</v>
+        <v>0</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="135"/>
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="135"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="135"/>
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="U42" s="5">
         <f t="shared" si="135"/>
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="135"/>
-        <v>11.33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="11235" yWindow="-150" windowWidth="14430" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Thread_8</t>
   </si>
   <si>
-    <t>Runtimes in Seconds</t>
-  </si>
-  <si>
     <t>Energy Consumption (KJ)</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Speedups</t>
+  </si>
+  <si>
+    <t>Runtimes in minutes</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,9 +154,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -177,6 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,31 +338,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.82003999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65664000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.70319999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.67449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.71994000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.71994000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.72189000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.72072000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.72345000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,31 +441,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.27660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.26579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25288000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.2465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.24824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.23279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21114000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.24480000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,31 +508,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.55614999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.36652000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.4425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.46650000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.46750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.46800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.46750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.46750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.46900000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,31 +575,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.30380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.24359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.21114000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.17732000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22031999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.18864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.17549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,31 +641,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.47884999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.37575999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.42538999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.42480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.44880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.4476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,31 +708,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.32859999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.20887999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.17172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.17549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20624999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.19136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.18315000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.1825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,31 +774,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43331999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33227999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.4047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.39831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.41256000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.41682999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.42413000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,31 +841,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.31371999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.25079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21615999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.23664000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21808</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.18618000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,31 +908,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.41117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.36819999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.38552999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.40895999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.41040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.41111999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.41256000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.41471999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,31 +975,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.29140000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.24900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22503999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.18479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.20033999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20843999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.20216000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.19601999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.21549999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,31 +1042,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42209999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.37487999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.39816000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.41040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.41759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.41682999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,31 +1109,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28365000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.23311999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.19488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.17711999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.20279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.18791999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.21114000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.19936000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.21384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,31 +1176,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42209999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.32969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.41040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.41111999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41464000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.41256000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.40460000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.40825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,31 +1243,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.29160000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.24599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22568000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.20141999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20682</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.22031999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.23265000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.18414000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,31 +1310,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.41814000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.38150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.33335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.34416000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.39476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.35856000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.41256000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.41616000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,31 +1377,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.23069000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.19872000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.18522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17732000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.22048000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.18615999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.20574000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109904640"/>
-        <c:axId val="109906944"/>
+        <c:axId val="45537152"/>
+        <c:axId val="45741184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109904640"/>
+        <c:axId val="45537152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109906944"/>
+        <c:crossAx val="45741184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109906944"/>
+        <c:axId val="45741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1661,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109904640"/>
+        <c:crossAx val="45537152"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1815,9 +1814,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9144911290375086E-2"/>
+          <c:x val="7.3991947720487103E-2"/>
           <c:y val="4.5542340167375628E-2"/>
-          <c:w val="0.91638017942921368"/>
+          <c:w val="0.90153313243064492"/>
           <c:h val="0.89091414539745339"/>
         </c:manualLayout>
       </c:layout>
@@ -1895,133 +1894,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>21.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>OneThread_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$Z$3:$AH$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$7:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>18.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +1927,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>TwoThreads_Local</c:v>
           </c:tx>
@@ -2063,97 +1960,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>TwoThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$12:$V$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.3800000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,7 +1993,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>ThreeThreads_Local</c:v>
           </c:tx>
@@ -2195,97 +2026,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>ThreeThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$17:$V$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,7 +2059,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>FourThreads_Local</c:v>
           </c:tx>
@@ -2327,97 +2092,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>FourThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$22:$V$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2125,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>FiveThreads_Local</c:v>
           </c:tx>
@@ -2460,98 +2159,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>FiveThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$27:$V$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,7 +2192,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>SixThreads_Local</c:v>
           </c:tx>
@@ -2594,98 +2226,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>SixThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$32:$V$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,7 +2259,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>SevenThreads_Local</c:v>
           </c:tx>
@@ -2728,98 +2293,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>SevenThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$37:$V$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2326,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>EightThreads_Local</c:v>
           </c:tx>
@@ -2862,98 +2360,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>EightThreads_Remote</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$42:$V$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,11 +2401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110533632"/>
-        <c:axId val="110536192"/>
+        <c:axId val="51825280"/>
+        <c:axId val="51983872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110533632"/>
+        <c:axId val="51825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +2521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110536192"/>
+        <c:crossAx val="51983872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,10 +2529,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110536192"/>
+        <c:axId val="51983872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="22.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3161,8 +2593,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.4835633680050448E-4"/>
-              <c:y val="0.42108371215831447"/>
+              <c:x val="1.8855938003273559E-3"/>
+              <c:y val="0.39951206172322951"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3174,7 +2606,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0_ ;\-0.0\ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3207,9 +2639,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110533632"/>
+        <c:crossAx val="51825280"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3225,10 +2659,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.50830074613116261"/>
+          <c:x val="0.41798124849788171"/>
           <c:y val="4.3060751089764676E-2"/>
-          <c:w val="0.4741814774638437"/>
-          <c:h val="0.14956616070483245"/>
+          <c:w val="0.56450099569679335"/>
+          <c:h val="8.3413099370572077E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4516,11 +3950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110299008"/>
-        <c:axId val="110313472"/>
+        <c:axId val="76708096"/>
+        <c:axId val="101707136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110299008"/>
+        <c:axId val="76708096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110313472"/>
+        <c:crossAx val="101707136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4644,10 +4078,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110313472"/>
+        <c:axId val="101707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
+          <c:max val="74"/>
           <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4754,7 +4188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110299008"/>
+        <c:crossAx val="76708096"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4778,6 +4212,2536 @@
           <c:y val="4.3060751089764676E-2"/>
           <c:w val="0.4741814774638437"/>
           <c:h val="0.10354663977665132"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43502994641231235"/>
+          <c:y val="5.7524401160226404E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6466454696891895E-2"/>
+          <c:y val="4.5542340167375628E-2"/>
+          <c:w val="0.89905862545424009"/>
+          <c:h val="0.89091414539745339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ThreeThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$17:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FourThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FiveThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SixThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SevenThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>EightThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$42:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="98603392"/>
+        <c:axId val="98605696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98603392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98605696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98605696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Runtime (Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4834031212495757E-4"/>
+              <c:y val="0.38369285140416726"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ ;\-0.0\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98603392"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35364406711135699"/>
+          <c:y val="4.3060751089764676E-2"/>
+          <c:w val="0.62883817708331813"/>
+          <c:h val="8.6289319428583394E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Runtimes (In case chart)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43502994641231235"/>
+          <c:y val="5.7524401160226404E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9144911290375086E-2"/>
+          <c:y val="4.5542340167375628E-2"/>
+          <c:w val="0.91638017942921368"/>
+          <c:h val="0.89091414539745339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OneThread_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TwoThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TwoThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ThreeThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ThreeThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$17:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>FourThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>FourThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>FiveThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$26:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>FiveThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>SixThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$31:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>SixThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>SevenThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$36:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>SevenThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>EightThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$41:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>EightThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$42:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="101140736"/>
+        <c:axId val="108593920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="101140736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108593920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108593920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Runtime (Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4835633680050448E-4"/>
+              <c:y val="0.42108371215831447"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ ;\-0.0\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101140736"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50830074613116261"/>
+          <c:y val="4.3060751089764676E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.14956616070483245"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5962,16 +7926,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>193100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>74838</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>502662</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>423183</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>232683</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5992,16 +7956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>77683</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>91847</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601558</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6024,16 +7988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>358671</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>572984</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6049,6 +8013,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168170</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44223</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>358671</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6312,7 +8340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6322,8 +8350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK51" sqref="AK51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,55 +8361,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="Y1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AK1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="Y1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AK1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6536,95 +8564,113 @@
       <c r="J4" s="3">
         <v>39</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="N4" s="11">
+        <v>21.58</v>
+      </c>
+      <c r="O4" s="11">
+        <v>17.28</v>
+      </c>
+      <c r="P4" s="11">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>17.75</v>
+      </c>
+      <c r="R4" s="11">
+        <v>18.46</v>
+      </c>
+      <c r="S4" s="11">
+        <v>18.46</v>
+      </c>
+      <c r="T4" s="11">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="U4" s="11">
+        <v>18.48</v>
+      </c>
+      <c r="V4" s="11">
+        <v>18.55</v>
+      </c>
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <f xml:space="preserve"> (B4 * N4) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
+        <v>0.82003999999999999</v>
+      </c>
+      <c r="AA4" s="6">
         <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
+        <v>0.65664000000000011</v>
+      </c>
+      <c r="AB4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
+        <v>0.70319999999999994</v>
+      </c>
+      <c r="AC4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="AD4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
+        <v>0.71994000000000002</v>
+      </c>
+      <c r="AE4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
+        <v>0.71994000000000002</v>
+      </c>
+      <c r="AF4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
+        <v>0.72189000000000014</v>
+      </c>
+      <c r="AG4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="7">
+        <v>0.72072000000000003</v>
+      </c>
+      <c r="AH4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="7" t="e">
+      <c r="AL4" s="6">
         <f>$N6/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM4" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="6">
         <f t="shared" ref="AM4:AS4" si="1">$N6/O6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN4" s="7" t="e">
+        <v>1.2488425925925923</v>
+      </c>
+      <c r="AN4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO4" s="7" t="e">
+        <v>1.2275312855517635</v>
+      </c>
+      <c r="AO4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP4" s="7" t="e">
+        <v>1.2157746478873239</v>
+      </c>
+      <c r="AP4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ4" s="7" t="e">
+        <v>1.169014084507042</v>
+      </c>
+      <c r="AQ4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR4" s="7" t="e">
+        <v>1.169014084507042</v>
+      </c>
+      <c r="AR4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS4" s="7" t="e">
+        <v>1.1658562938951915</v>
+      </c>
+      <c r="AS4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT4" s="7" t="e">
+        <v>1.1677489177489175</v>
+      </c>
+      <c r="AT4" s="6">
         <f>$N6/V6</f>
-        <v>#DIV/0!</v>
+        <v>1.163342318059299</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -6658,208 +8704,208 @@
       <c r="J5" s="4">
         <v>60</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="N5" s="12">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="P5" s="12">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="S5" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="T5" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="U5" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="V5" s="12">
+        <v>4.08</v>
+      </c>
       <c r="Y5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <f xml:space="preserve"> (B5 * N5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="AA5" s="6">
         <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="AB5" s="6">
         <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
+        <v>0.25288000000000005</v>
+      </c>
+      <c r="AC5" s="6">
         <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AD5" s="6">
         <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
+        <v>0.2465</v>
+      </c>
+      <c r="AE5" s="6">
         <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
+        <v>0.24824000000000002</v>
+      </c>
+      <c r="AF5" s="6">
         <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
+        <v>0.23279999999999998</v>
+      </c>
+      <c r="AG5" s="6">
         <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
+        <v>0.21114000000000002</v>
+      </c>
+      <c r="AH5" s="6">
         <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5) / 1000</f>
-        <v>0</v>
+        <v>0.24480000000000002</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="7" t="e">
+      <c r="AL5" s="6">
         <f>$N7/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM5" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="6">
         <f t="shared" ref="AM5" si="10">$N7/O7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN5" s="7" t="e">
+        <v>1.0406320541760723</v>
+      </c>
+      <c r="AN5" s="6">
         <f t="shared" ref="AN5" si="11">$N7/P7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO5" s="7" t="e">
+        <v>1.0573394495412844</v>
+      </c>
+      <c r="AO5" s="6">
         <f t="shared" ref="AO5" si="12">$N7/Q7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP5" s="7" t="e">
+        <v>1.2131578947368422</v>
+      </c>
+      <c r="AP5" s="6">
         <f t="shared" ref="AP5" si="13">$N7/R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ5" s="7" t="e">
+        <v>1.0847058823529412</v>
+      </c>
+      <c r="AQ5" s="6">
         <f>$N7/S7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR5" s="7" t="e">
+        <v>1.0771028037383177</v>
+      </c>
+      <c r="AR5" s="6">
         <f t="shared" ref="AR5" si="14">$N7/T7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS5" s="7" t="e">
+        <v>1.1881443298969074</v>
+      </c>
+      <c r="AS5" s="6">
         <f t="shared" ref="AS5" si="15">$N7/U7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT5" s="7" t="e">
+        <v>1.1790281329923273</v>
+      </c>
+      <c r="AT5" s="6">
         <f>$N7/V7</f>
-        <v>#DIV/0!</v>
+        <v>1.1299019607843137</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N6" s="5">
-        <f>N4/60</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" ref="O6:V7" si="16">O4/60</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
+      <c r="N6" s="11">
+        <v>21.58</v>
+      </c>
+      <c r="O6" s="11">
+        <v>17.28</v>
+      </c>
+      <c r="P6" s="11">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>17.75</v>
+      </c>
+      <c r="R6" s="11">
+        <v>18.46</v>
+      </c>
+      <c r="S6" s="11">
+        <v>18.46</v>
+      </c>
+      <c r="T6" s="11">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="U6" s="11">
+        <v>18.48</v>
+      </c>
+      <c r="V6" s="11">
+        <v>18.55</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N7" s="5">
-        <f>N5/60</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
+      <c r="N7" s="12">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O7" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="P7" s="12">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="R7" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="S7" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="T7" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="U7" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="V7" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -6892,7 +8938,7 @@
       <c r="J8" s="2">
         <v>16</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="2">
@@ -7014,95 +9060,113 @@
       <c r="J9" s="3">
         <v>50</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="N9" s="11">
+        <v>11.35</v>
+      </c>
+      <c r="O9" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="P9" s="11">
+        <v>8.85</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>9.33</v>
+      </c>
+      <c r="R9" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="S9" s="11">
+        <v>9.36</v>
+      </c>
+      <c r="T9" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="U9" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="V9" s="11">
+        <v>9.3800000000000008</v>
+      </c>
       <c r="Y9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <f xml:space="preserve"> (B9 * N9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <f t="shared" ref="AA9:AA10" si="17" xml:space="preserve"> (C9 * O9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <f t="shared" ref="AB9:AB10" si="18" xml:space="preserve"> (D9 * P9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <f t="shared" ref="AC9:AC10" si="19" xml:space="preserve"> (E9 * Q9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" ref="AD9:AD10" si="20" xml:space="preserve"> (F9 * R9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <f t="shared" ref="AE9:AE10" si="21" xml:space="preserve"> (G9 * S9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <f t="shared" ref="AF9:AF10" si="22" xml:space="preserve"> (H9 * T9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <f t="shared" ref="AG9:AG10" si="23" xml:space="preserve"> (I9 * U9) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <f t="shared" ref="AH9:AH10" si="24" xml:space="preserve"> (J9 * V9) / 1000</f>
-        <v>0</v>
+        <v>0.55614999999999992</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9) / 1000</f>
+        <v>0.36652000000000001</v>
+      </c>
+      <c r="AB9" s="6">
+        <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9) / 1000</f>
+        <v>0.4425</v>
+      </c>
+      <c r="AC9" s="6">
+        <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9) / 1000</f>
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="AD9" s="6">
+        <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9) / 1000</f>
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="AE9" s="6">
+        <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9) / 1000</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AF9" s="6">
+        <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9) / 1000</f>
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="AG9" s="6">
+        <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9) / 1000</f>
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="AH9" s="6">
+        <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9) / 1000</f>
+        <v>0.46900000000000008</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="7" t="e">
+      <c r="AL9" s="6">
         <f>$N11/N11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM9" s="7" t="e">
-        <f t="shared" ref="AM9:AM10" si="25">$N11/O11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN9" s="7" t="e">
-        <f t="shared" ref="AN9:AN10" si="26">$N11/P11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="7" t="e">
-        <f t="shared" ref="AO9:AO10" si="27">$N11/Q11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP9" s="7" t="e">
-        <f t="shared" ref="AP9:AP10" si="28">$N11/R11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ9" s="7" t="e">
-        <f t="shared" ref="AQ9" si="29">$N11/S11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR9" s="7" t="e">
-        <f t="shared" ref="AR9:AR10" si="30">$N11/T11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS9" s="7" t="e">
-        <f t="shared" ref="AS9:AS10" si="31">$N11/U11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT9" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="6">
+        <f t="shared" ref="AM9:AM10" si="24">$N11/O11</f>
+        <v>1.517379679144385</v>
+      </c>
+      <c r="AN9" s="6">
+        <f t="shared" ref="AN9:AN10" si="25">$N11/P11</f>
+        <v>1.2824858757062148</v>
+      </c>
+      <c r="AO9" s="6">
+        <f t="shared" ref="AO9:AO10" si="26">$N11/Q11</f>
+        <v>1.2165058949624865</v>
+      </c>
+      <c r="AP9" s="6">
+        <f t="shared" ref="AP9:AP10" si="27">$N11/R11</f>
+        <v>1.213903743315508</v>
+      </c>
+      <c r="AQ9" s="6">
+        <f t="shared" ref="AQ9" si="28">$N11/S11</f>
+        <v>1.2126068376068377</v>
+      </c>
+      <c r="AR9" s="6">
+        <f t="shared" ref="AR9:AR10" si="29">$N11/T11</f>
+        <v>1.213903743315508</v>
+      </c>
+      <c r="AS9" s="6">
+        <f t="shared" ref="AS9:AS10" si="30">$N11/U11</f>
+        <v>1.213903743315508</v>
+      </c>
+      <c r="AT9" s="6">
         <f>$N11/V11</f>
-        <v>#DIV/0!</v>
+        <v>1.2100213219616203</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -7136,208 +9200,208 @@
       <c r="J10" s="4">
         <v>50</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="N10" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O10" s="12">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P10" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="R10" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="S10" s="12">
+        <v>3.53</v>
+      </c>
+      <c r="T10" s="12">
+        <v>3.93</v>
+      </c>
+      <c r="U10" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="V10" s="12">
+        <v>3.58</v>
+      </c>
       <c r="Y10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <f xml:space="preserve"> (B10 * N10) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="16"/>
+        <v>0.24359999999999996</v>
+      </c>
+      <c r="AB10" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
+        <v>0.21114000000000002</v>
+      </c>
+      <c r="AC10" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
+        <v>0.17732000000000001</v>
+      </c>
+      <c r="AD10" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
+        <v>0.22031999999999999</v>
+      </c>
+      <c r="AE10" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="AF10" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
+        <v>0.18864</v>
+      </c>
+      <c r="AG10" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="7">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="AH10" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL10" s="7" t="e">
+      <c r="AL10" s="6">
         <f>$N12/N12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM10" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="6">
+        <f t="shared" si="24"/>
+        <v>1.2068965517241381</v>
+      </c>
+      <c r="AN10" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN10" s="7" t="e">
+        <v>1.2531969309462916</v>
+      </c>
+      <c r="AO10" s="6">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="7" t="e">
+        <v>1.436950146627566</v>
+      </c>
+      <c r="AP10" s="6">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="7" t="e">
+        <v>1.2009803921568629</v>
+      </c>
+      <c r="AQ10" s="6">
         <f>$N12/S12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="7" t="e">
+        <v>1.3881019830028329</v>
+      </c>
+      <c r="AR10" s="6">
+        <f t="shared" si="29"/>
+        <v>1.2468193384223918</v>
+      </c>
+      <c r="AS10" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS10" s="7" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT10" s="7" t="e">
+        <v>1.5076923076923079</v>
+      </c>
+      <c r="AT10" s="6">
         <f>$N12/V12</f>
-        <v>#DIV/0!</v>
+        <v>1.3687150837988828</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N11" s="5">
-        <f>N9/60</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" ref="O11:V11" si="32">O9/60</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
+      <c r="N11" s="11">
+        <v>11.35</v>
+      </c>
+      <c r="O11" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8.85</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>9.33</v>
+      </c>
+      <c r="R11" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="S11" s="11">
+        <v>9.36</v>
+      </c>
+      <c r="T11" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="U11" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="V11" s="11">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N12" s="5">
-        <f>N10/60</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" ref="O12:V12" si="33">O10/60</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
+      <c r="N12" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O12" s="12">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="R12" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="S12" s="12">
+        <v>3.53</v>
+      </c>
+      <c r="T12" s="12">
+        <v>3.93</v>
+      </c>
+      <c r="U12" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="V12" s="12">
+        <v>3.58</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7370,7 +9434,7 @@
       <c r="J13" s="2">
         <v>16</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="N13" s="2">
@@ -7492,95 +9556,113 @@
       <c r="J14" s="3">
         <v>60</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="N14" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="O14" s="11">
+        <v>6.16</v>
+      </c>
+      <c r="P14" s="11">
+        <v>7.21</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="R14" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="S14" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="T14" s="11">
+        <v>7.46</v>
+      </c>
+      <c r="U14" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="V14" s="11">
+        <v>7.5</v>
+      </c>
       <c r="Y14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <f xml:space="preserve"> (B14 * N14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <f t="shared" ref="AA14:AA15" si="34" xml:space="preserve"> (C14 * O14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" ref="AB14:AB15" si="35" xml:space="preserve"> (D14 * P14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <f t="shared" ref="AC14:AC15" si="36" xml:space="preserve"> (E14 * Q14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" ref="AD14:AD15" si="37" xml:space="preserve"> (F14 * R14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="7">
-        <f t="shared" ref="AE14:AE15" si="38" xml:space="preserve"> (G14 * S14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
-        <f t="shared" ref="AF14:AF15" si="39" xml:space="preserve"> (H14 * T14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="7">
-        <f t="shared" ref="AG14:AG15" si="40" xml:space="preserve"> (I14 * U14) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="7">
-        <f t="shared" ref="AH14:AH15" si="41" xml:space="preserve"> (J14 * V14) / 1000</f>
-        <v>0</v>
+        <v>0.47884999999999994</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14) / 1000</f>
+        <v>0.37575999999999998</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14) / 1000</f>
+        <v>0.42538999999999999</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14) / 1000</f>
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14) / 1000</f>
+        <v>0.44880000000000003</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14) / 1000</f>
+        <v>0.45</v>
+      </c>
+      <c r="AF14" s="6">
+        <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14) / 1000</f>
+        <v>0.4476</v>
+      </c>
+      <c r="AG14" s="6">
+        <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14) / 1000</f>
+        <v>0.45</v>
+      </c>
+      <c r="AH14" s="6">
+        <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14) / 1000</f>
+        <v>0.45</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL14" s="7" t="e">
+      <c r="AL14" s="6">
         <f>$N16/N16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="7" t="e">
-        <f t="shared" ref="AM14:AM15" si="42">$N16/O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN14" s="7" t="e">
-        <f t="shared" ref="AN14:AN15" si="43">$N16/P16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="7" t="e">
-        <f t="shared" ref="AO14:AO15" si="44">$N16/Q16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="7" t="e">
-        <f t="shared" ref="AP14:AP15" si="45">$N16/R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ14" s="7" t="e">
-        <f t="shared" ref="AQ14" si="46">$N16/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR14" s="7" t="e">
-        <f t="shared" ref="AR14:AR15" si="47">$N16/T16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS14" s="7" t="e">
-        <f t="shared" ref="AS14:AS15" si="48">$N16/U16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT14" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="6">
+        <f t="shared" ref="AM14:AM15" si="39">$N16/O16</f>
+        <v>1.2743506493506493</v>
+      </c>
+      <c r="AN14" s="6">
+        <f t="shared" ref="AN14:AN15" si="40">$N16/P16</f>
+        <v>1.0887656033287101</v>
+      </c>
+      <c r="AO14" s="6">
+        <f t="shared" ref="AO14:AO15" si="41">$N16/Q16</f>
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="AP14" s="6">
+        <f t="shared" ref="AP14:AP15" si="42">$N16/R16</f>
+        <v>1.0494652406417111</v>
+      </c>
+      <c r="AQ14" s="6">
+        <f t="shared" ref="AQ14" si="43">$N16/S16</f>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="AR14" s="6">
+        <f t="shared" ref="AR14:AR15" si="44">$N16/T16</f>
+        <v>1.052278820375335</v>
+      </c>
+      <c r="AS14" s="6">
+        <f t="shared" ref="AS14:AS15" si="45">$N16/U16</f>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="AT14" s="6">
         <f>$N16/V16</f>
-        <v>#DIV/0!</v>
+        <v>1.0466666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -7614,208 +9696,208 @@
       <c r="J15" s="4">
         <v>50</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="N15" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="O15" s="12">
+        <v>3.85</v>
+      </c>
+      <c r="P15" s="12">
+        <v>3.73</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="R15" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="S15" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="T15" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="U15" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="V15" s="12">
+        <v>3.65</v>
+      </c>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="6">
         <f xml:space="preserve"> (B15 * N15) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
+        <v>0.32859999999999995</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="31"/>
+        <v>0.2233</v>
+      </c>
+      <c r="AB15" s="6">
+        <f t="shared" si="32"/>
+        <v>0.20887999999999998</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" si="33"/>
+        <v>0.17172000000000001</v>
+      </c>
+      <c r="AD15" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="AE15" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="AF15" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
+        <v>0.19136</v>
+      </c>
+      <c r="AG15" s="6">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="7">
+        <v>0.18315000000000001</v>
+      </c>
+      <c r="AH15" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="7">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="7">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.1825</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL15" s="7" t="e">
+      <c r="AL15" s="6">
         <f>$N17/N17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM15" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="6">
+        <f t="shared" si="39"/>
+        <v>1.3766233766233766</v>
+      </c>
+      <c r="AN15" s="6">
+        <f t="shared" si="40"/>
+        <v>1.4209115281501341</v>
+      </c>
+      <c r="AO15" s="6">
+        <f t="shared" si="41"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="AP15" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN15" s="7" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO15" s="7" t="e">
+        <v>1.6307692307692307</v>
+      </c>
+      <c r="AQ15" s="6">
+        <f>$N17/S17</f>
+        <v>1.4133333333333333</v>
+      </c>
+      <c r="AR15" s="6">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP15" s="7" t="e">
+        <v>1.4402173913043477</v>
+      </c>
+      <c r="AS15" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ15" s="7" t="e">
-        <f>$N17/S17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR15" s="7" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS15" s="7" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT15" s="7" t="e">
+        <v>1.5915915915915915</v>
+      </c>
+      <c r="AT15" s="6">
         <f>$N17/V17</f>
-        <v>#DIV/0!</v>
+        <v>1.452054794520548</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N16" s="5">
-        <f>N14/60</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" ref="O16:V16" si="49">O14/60</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
+      <c r="N16" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="O16" s="11">
+        <v>6.16</v>
+      </c>
+      <c r="P16" s="11">
+        <v>7.21</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="R16" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="S16" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="T16" s="11">
+        <v>7.46</v>
+      </c>
+      <c r="U16" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="V16" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N17" s="5">
-        <f>N15/60</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" ref="O17:V17" si="50">O15/60</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
+      <c r="N17" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="O17" s="12">
+        <v>3.85</v>
+      </c>
+      <c r="P17" s="12">
+        <v>3.73</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="R17" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="S17" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="T17" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="U17" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="V17" s="12">
+        <v>3.65</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -7848,7 +9930,7 @@
       <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="2">
@@ -7970,95 +10052,113 @@
       <c r="J19" s="3">
         <v>73</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="N19" s="11">
+        <v>6.28</v>
+      </c>
+      <c r="O19" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="P19" s="11">
+        <v>4.68</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="R19" s="11">
+        <v>5.61</v>
+      </c>
+      <c r="S19" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="T19" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="U19" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="V19" s="11">
+        <v>5.81</v>
+      </c>
       <c r="Y19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="6">
         <f xml:space="preserve"> (B19 * N19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <f t="shared" ref="AA19:AA20" si="51" xml:space="preserve"> (C19 * O19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <f t="shared" ref="AB19:AB20" si="52" xml:space="preserve"> (D19 * P19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7">
-        <f t="shared" ref="AC19:AC20" si="53" xml:space="preserve"> (E19 * Q19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" ref="AD19:AD20" si="54" xml:space="preserve"> (F19 * R19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="7">
-        <f t="shared" ref="AE19:AE20" si="55" xml:space="preserve"> (G19 * S19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="7">
-        <f t="shared" ref="AF19:AF20" si="56" xml:space="preserve"> (H19 * T19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="7">
-        <f t="shared" ref="AG19:AG20" si="57" xml:space="preserve"> (I19 * U19) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="7">
-        <f t="shared" ref="AH19:AH20" si="58" xml:space="preserve"> (J19 * V19) / 1000</f>
-        <v>0</v>
+        <v>0.43331999999999998</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19) / 1000</f>
+        <v>0.371</v>
+      </c>
+      <c r="AB19" s="6">
+        <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19) / 1000</f>
+        <v>0.33227999999999996</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19) / 1000</f>
+        <v>0.4047</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19) / 1000</f>
+        <v>0.39831</v>
+      </c>
+      <c r="AE19" s="6">
+        <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19) / 1000</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="AF19" s="6">
+        <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19) / 1000</f>
+        <v>0.41256000000000004</v>
+      </c>
+      <c r="AG19" s="6">
+        <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19) / 1000</f>
+        <v>0.41682999999999998</v>
+      </c>
+      <c r="AH19" s="6">
+        <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19) / 1000</f>
+        <v>0.42413000000000001</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="7" t="e">
+      <c r="AL19" s="6">
         <f>$N21/N21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM19" s="7" t="e">
-        <f t="shared" ref="AM19:AM20" si="59">$N21/O21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN19" s="7" t="e">
-        <f t="shared" ref="AN19:AN20" si="60">$N21/P21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO19" s="7" t="e">
-        <f t="shared" ref="AO19:AO20" si="61">$N21/Q21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP19" s="7" t="e">
-        <f t="shared" ref="AP19:AP20" si="62">$N21/R21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ19" s="7" t="e">
-        <f t="shared" ref="AQ19" si="63">$N21/S21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR19" s="7" t="e">
-        <f t="shared" ref="AR19:AR20" si="64">$N21/T21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS19" s="7" t="e">
-        <f t="shared" ref="AS19:AS20" si="65">$N21/U21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT19" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="6">
+        <f t="shared" ref="AM19:AM20" si="54">$N21/O21</f>
+        <v>1.1849056603773587</v>
+      </c>
+      <c r="AN19" s="6">
+        <f t="shared" ref="AN19:AN20" si="55">$N21/P21</f>
+        <v>1.341880341880342</v>
+      </c>
+      <c r="AO19" s="6">
+        <f t="shared" ref="AO19:AO20" si="56">$N21/Q21</f>
+        <v>1.1017543859649124</v>
+      </c>
+      <c r="AP19" s="6">
+        <f t="shared" ref="AP19:AP20" si="57">$N21/R21</f>
+        <v>1.1194295900178253</v>
+      </c>
+      <c r="AQ19" s="6">
+        <f t="shared" ref="AQ19" si="58">$N21/S21</f>
+        <v>1.1017543859649124</v>
+      </c>
+      <c r="AR19" s="6">
+        <f t="shared" ref="AR19:AR20" si="59">$N21/T21</f>
+        <v>1.0959860383944153</v>
+      </c>
+      <c r="AS19" s="6">
+        <f t="shared" ref="AS19:AS20" si="60">$N21/U21</f>
+        <v>1.0998248686514887</v>
+      </c>
+      <c r="AT19" s="6">
         <f>$N21/V21</f>
-        <v>#DIV/0!</v>
+        <v>1.0808950086058522</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -8092,208 +10192,208 @@
       <c r="J20" s="4">
         <v>58</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="N20" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O20" s="12">
+        <v>4.18</v>
+      </c>
+      <c r="P20" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="R20" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="S20" s="12">
+        <v>3.31</v>
+      </c>
+      <c r="T20" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="U20" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="V20" s="12">
+        <v>3.21</v>
+      </c>
       <c r="Y20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="6">
         <f xml:space="preserve"> (B20 * N20) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
+        <v>0.31371999999999994</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="46"/>
+        <v>0.25079999999999997</v>
+      </c>
+      <c r="AB20" s="6">
+        <f t="shared" si="47"/>
+        <v>0.222</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="48"/>
+        <v>0.21615999999999999</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="49"/>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" si="50"/>
+        <v>0.1986</v>
+      </c>
+      <c r="AF20" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
+        <v>0.23664000000000002</v>
+      </c>
+      <c r="AG20" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
+        <v>0.21808</v>
+      </c>
+      <c r="AH20" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="7">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="7">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="7">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.18618000000000001</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL20" s="7" t="e">
+      <c r="AL20" s="6">
         <f>$N22/N22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM20" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="6">
+        <f t="shared" si="54"/>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AN20" s="6">
+        <f t="shared" si="55"/>
+        <v>1.3675675675675674</v>
+      </c>
+      <c r="AO20" s="6">
+        <f t="shared" si="56"/>
+        <v>1.310880829015544</v>
+      </c>
+      <c r="AP20" s="6">
+        <f t="shared" si="57"/>
+        <v>1.331578947368421</v>
+      </c>
+      <c r="AQ20" s="6">
+        <f>$N22/S22</f>
+        <v>1.5287009063444108</v>
+      </c>
+      <c r="AR20" s="6">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN20" s="7" t="e">
+        <v>1.2401960784313724</v>
+      </c>
+      <c r="AS20" s="6">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO20" s="7" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP20" s="7" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ20" s="7" t="e">
-        <f>$N22/S22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR20" s="7" t="e">
-        <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS20" s="7" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT20" s="7" t="e">
+        <v>1.3457446808510638</v>
+      </c>
+      <c r="AT20" s="6">
         <f>$N22/V22</f>
-        <v>#DIV/0!</v>
+        <v>1.5763239875389408</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N21" s="5">
-        <f>N19/60</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" ref="O21:V21" si="66">O19/60</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
+      <c r="N21" s="11">
+        <v>6.28</v>
+      </c>
+      <c r="O21" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="P21" s="11">
+        <v>4.68</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="R21" s="11">
+        <v>5.61</v>
+      </c>
+      <c r="S21" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="T21" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="U21" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="V21" s="11">
+        <v>5.81</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N22" s="5">
-        <f>N20/60</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" ref="O22:V22" si="67">O20/60</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
+      <c r="N22" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O22" s="12">
+        <v>4.18</v>
+      </c>
+      <c r="P22" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="R22" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="S22" s="12">
+        <v>3.31</v>
+      </c>
+      <c r="T22" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="U22" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="V22" s="12">
+        <v>3.21</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -8326,7 +10426,7 @@
       <c r="J23" s="2">
         <v>16</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N23" s="2">
@@ -8448,95 +10548,113 @@
       <c r="J24" s="3">
         <v>72</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="N24" s="11">
+        <v>6.23</v>
+      </c>
+      <c r="O24" s="11">
+        <v>5.26</v>
+      </c>
+      <c r="P24" s="11">
+        <v>5.43</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>5.76</v>
+      </c>
+      <c r="R24" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="S24" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="T24" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="U24" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="V24" s="11">
+        <v>5.76</v>
+      </c>
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="Z24" s="6">
         <f xml:space="preserve"> (B24 * N24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
-        <f t="shared" ref="AA24:AA25" si="68" xml:space="preserve"> (C24 * O24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="7">
-        <f t="shared" ref="AB24:AB25" si="69" xml:space="preserve"> (D24 * P24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7">
-        <f t="shared" ref="AC24:AC25" si="70" xml:space="preserve"> (E24 * Q24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <f t="shared" ref="AD24:AD25" si="71" xml:space="preserve"> (F24 * R24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="7">
-        <f t="shared" ref="AE24:AE25" si="72" xml:space="preserve"> (G24 * S24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="7">
-        <f t="shared" ref="AF24:AF25" si="73" xml:space="preserve"> (H24 * T24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="7">
-        <f t="shared" ref="AG24:AG25" si="74" xml:space="preserve"> (I24 * U24) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="7">
-        <f t="shared" ref="AH24:AH25" si="75" xml:space="preserve"> (J24 * V24) / 1000</f>
-        <v>0</v>
+        <v>0.41117999999999999</v>
+      </c>
+      <c r="AA24" s="6">
+        <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24) / 1000</f>
+        <v>0.36819999999999997</v>
+      </c>
+      <c r="AB24" s="6">
+        <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24) / 1000</f>
+        <v>0.38552999999999998</v>
+      </c>
+      <c r="AC24" s="6">
+        <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24) / 1000</f>
+        <v>0.40895999999999999</v>
+      </c>
+      <c r="AD24" s="6">
+        <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24) / 1000</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="AE24" s="6">
+        <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24) / 1000</f>
+        <v>0.41759999999999997</v>
+      </c>
+      <c r="AF24" s="6">
+        <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24) / 1000</f>
+        <v>0.41111999999999999</v>
+      </c>
+      <c r="AG24" s="6">
+        <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24) / 1000</f>
+        <v>0.41256000000000004</v>
+      </c>
+      <c r="AH24" s="6">
+        <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24) / 1000</f>
+        <v>0.41471999999999998</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL24" s="7" t="e">
+      <c r="AL24" s="6">
         <f>$N26/N26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM24" s="7" t="e">
-        <f t="shared" ref="AM24:AM25" si="76">$N26/O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN24" s="7" t="e">
-        <f t="shared" ref="AN24:AN25" si="77">$N26/P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO24" s="7" t="e">
-        <f t="shared" ref="AO24:AO25" si="78">$N26/Q26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP24" s="7" t="e">
-        <f t="shared" ref="AP24:AP25" si="79">$N26/R26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ24" s="7" t="e">
-        <f t="shared" ref="AQ24" si="80">$N26/S26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR24" s="7" t="e">
-        <f t="shared" ref="AR24:AR25" si="81">$N26/T26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS24" s="7" t="e">
-        <f t="shared" ref="AS24:AS25" si="82">$N26/U26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT24" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="6">
+        <f t="shared" ref="AM24:AM25" si="69">$N26/O26</f>
+        <v>1.1844106463878328</v>
+      </c>
+      <c r="AN24" s="6">
+        <f t="shared" ref="AN24:AN25" si="70">$N26/P26</f>
+        <v>1.1473296500920811</v>
+      </c>
+      <c r="AO24" s="6">
+        <f t="shared" ref="AO24:AO25" si="71">$N26/Q26</f>
+        <v>1.0815972222222223</v>
+      </c>
+      <c r="AP24" s="6">
+        <f t="shared" ref="AP24:AP25" si="72">$N26/R26</f>
+        <v>1.0929824561403509</v>
+      </c>
+      <c r="AQ24" s="6">
+        <f t="shared" ref="AQ24" si="73">$N26/S26</f>
+        <v>1.074137931034483</v>
+      </c>
+      <c r="AR24" s="6">
+        <f t="shared" ref="AR24:AR25" si="74">$N26/T26</f>
+        <v>1.0910683012259195</v>
+      </c>
+      <c r="AS24" s="6">
+        <f t="shared" ref="AS24:AS25" si="75">$N26/U26</f>
+        <v>1.087260034904014</v>
+      </c>
+      <c r="AT24" s="6">
         <f>$N26/V26</f>
-        <v>#DIV/0!</v>
+        <v>1.0815972222222223</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -8570,208 +10688,208 @@
       <c r="J25" s="4">
         <v>50</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="N25" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="O25" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P25" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="R25" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="S25" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="T25" s="12">
+        <v>3.61</v>
+      </c>
+      <c r="U25" s="12">
+        <v>3.63</v>
+      </c>
+      <c r="V25" s="12">
+        <v>4.3099999999999996</v>
+      </c>
       <c r="Y25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="Z25" s="6">
         <f xml:space="preserve"> (B25 * N25) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
+        <v>0.29140000000000005</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="61"/>
+        <v>0.24900000000000003</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="62"/>
+        <v>0.22503999999999999</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="63"/>
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="64"/>
+        <v>0.20033999999999999</v>
+      </c>
+      <c r="AE25" s="6">
+        <f t="shared" si="65"/>
+        <v>0.20843999999999999</v>
+      </c>
+      <c r="AF25" s="6">
+        <f t="shared" si="66"/>
+        <v>0.20216000000000001</v>
+      </c>
+      <c r="AG25" s="6">
+        <f t="shared" si="67"/>
+        <v>0.19601999999999997</v>
+      </c>
+      <c r="AH25" s="6">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="7">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="7">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="7">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <v>0.21549999999999997</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL25" s="7" t="e">
+      <c r="AL25" s="6">
         <f>$N27/N27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM25" s="7" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN25" s="7" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO25" s="7" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP25" s="7" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ25" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="6">
+        <f t="shared" si="69"/>
+        <v>1.1325301204819276</v>
+      </c>
+      <c r="AN25" s="6">
+        <f t="shared" si="70"/>
+        <v>1.2113402061855671</v>
+      </c>
+      <c r="AO25" s="6">
+        <f t="shared" si="71"/>
+        <v>1.4242424242424243</v>
+      </c>
+      <c r="AP25" s="6">
+        <f t="shared" si="72"/>
+        <v>1.2668463611859839</v>
+      </c>
+      <c r="AQ25" s="6">
         <f>$N27/S27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR25" s="7" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS25" s="7" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT25" s="7" t="e">
+        <v>1.2176165803108809</v>
+      </c>
+      <c r="AR25" s="6">
+        <f t="shared" si="74"/>
+        <v>1.3019390581717452</v>
+      </c>
+      <c r="AS25" s="6">
+        <f t="shared" si="75"/>
+        <v>1.2947658402203857</v>
+      </c>
+      <c r="AT25" s="6">
         <f>$N27/V27</f>
-        <v>#DIV/0!</v>
+        <v>1.0904872389791185</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N26" s="5">
-        <f>N24/60</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" ref="O26:V26" si="83">O24/60</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
+      <c r="N26" s="11">
+        <v>6.23</v>
+      </c>
+      <c r="O26" s="11">
+        <v>5.26</v>
+      </c>
+      <c r="P26" s="11">
+        <v>5.43</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>5.76</v>
+      </c>
+      <c r="R26" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="S26" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="T26" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="U26" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="V26" s="11">
+        <v>5.76</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N27" s="5">
-        <f>N25/60</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" ref="O27:V27" si="84">O25/60</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
+      <c r="N27" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="O27" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P27" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="R27" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="S27" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="T27" s="12">
+        <v>3.61</v>
+      </c>
+      <c r="U27" s="12">
+        <v>3.63</v>
+      </c>
+      <c r="V27" s="12">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -8804,7 +10922,7 @@
       <c r="J28" s="2">
         <v>16</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N28" s="2">
@@ -8926,95 +11044,113 @@
       <c r="J29" s="3">
         <v>73</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="N29" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O29" s="11">
+        <v>5.28</v>
+      </c>
+      <c r="P29" s="11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>5.53</v>
+      </c>
+      <c r="R29" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="S29" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="T29" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="U29" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V29" s="11">
+        <v>5.71</v>
+      </c>
       <c r="Y29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="Z29" s="6">
         <f xml:space="preserve"> (B29 * N29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="7">
-        <f t="shared" ref="AA29:AA30" si="85" xml:space="preserve"> (C29 * O29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="7">
-        <f t="shared" ref="AB29:AB30" si="86" xml:space="preserve"> (D29 * P29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7">
-        <f t="shared" ref="AC29:AC30" si="87" xml:space="preserve"> (E29 * Q29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7">
-        <f t="shared" ref="AD29:AD30" si="88" xml:space="preserve"> (F29 * R29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="7">
-        <f t="shared" ref="AE29:AE30" si="89" xml:space="preserve"> (G29 * S29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="7">
-        <f t="shared" ref="AF29:AF30" si="90" xml:space="preserve"> (H29 * T29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="7">
-        <f t="shared" ref="AG29:AG30" si="91" xml:space="preserve"> (I29 * U29) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="7">
-        <f t="shared" ref="AH29:AH30" si="92" xml:space="preserve"> (J29 * V29) / 1000</f>
-        <v>0</v>
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="AA29" s="6">
+        <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29) / 1000</f>
+        <v>0.37487999999999999</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29) / 1000</f>
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29) / 1000</f>
+        <v>0.39816000000000001</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29) / 1000</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="AE29" s="6">
+        <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29) / 1000</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="AF29" s="6">
+        <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29) / 1000</f>
+        <v>0.41759999999999997</v>
+      </c>
+      <c r="AG29" s="6">
+        <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29) / 1000</f>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AH29" s="6">
+        <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29) / 1000</f>
+        <v>0.41682999999999998</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL29" s="7" t="e">
+      <c r="AL29" s="6">
         <f>$N31/N31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM29" s="7" t="e">
-        <f t="shared" ref="AM29:AM30" si="93">$N31/O31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN29" s="7" t="e">
-        <f t="shared" ref="AN29:AN30" si="94">$N31/P31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO29" s="7" t="e">
-        <f t="shared" ref="AO29:AO30" si="95">$N31/Q31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP29" s="7" t="e">
-        <f t="shared" ref="AP29:AP30" si="96">$N31/R31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ29" s="7" t="e">
-        <f t="shared" ref="AQ29" si="97">$N31/S31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR29" s="7" t="e">
-        <f t="shared" ref="AR29:AR30" si="98">$N31/T31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS29" s="7" t="e">
-        <f t="shared" ref="AS29:AS30" si="99">$N31/U31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT29" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="6">
+        <f t="shared" ref="AM29:AM30" si="84">$N31/O31</f>
+        <v>1.1931818181818181</v>
+      </c>
+      <c r="AN29" s="6">
+        <f t="shared" ref="AN29:AN30" si="85">$N31/P31</f>
+        <v>1.3548387096774193</v>
+      </c>
+      <c r="AO29" s="6">
+        <f t="shared" ref="AO29:AO30" si="86">$N31/Q31</f>
+        <v>1.1392405063291138</v>
+      </c>
+      <c r="AP29" s="6">
+        <f t="shared" ref="AP29:AP30" si="87">$N31/R31</f>
+        <v>1.1052631578947367</v>
+      </c>
+      <c r="AQ29" s="6">
+        <f t="shared" ref="AQ29" si="88">$N31/S31</f>
+        <v>1.1052631578947367</v>
+      </c>
+      <c r="AR29" s="6">
+        <f t="shared" ref="AR29:AR30" si="89">$N31/T31</f>
+        <v>1.0862068965517242</v>
+      </c>
+      <c r="AS29" s="6">
+        <f t="shared" ref="AS29:AS30" si="90">$N31/U31</f>
+        <v>1.0956521739130434</v>
+      </c>
+      <c r="AT29" s="6">
         <f>$N31/V31</f>
-        <v>#DIV/0!</v>
+        <v>1.1033274956217163</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -9048,208 +11184,208 @@
       <c r="J30" s="4">
         <v>54</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="N30" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O30" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="P30" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="R30" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="S30" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="T30" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="U30" s="12">
+        <v>3.56</v>
+      </c>
+      <c r="V30" s="12">
+        <v>3.96</v>
+      </c>
       <c r="Y30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="7">
+      <c r="Z30" s="6">
         <f xml:space="preserve"> (B30 * N30) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="7">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="7">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="7">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="7">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.28365000000000001</v>
+      </c>
+      <c r="AA30" s="6">
+        <f t="shared" si="76"/>
+        <v>0.23311999999999997</v>
+      </c>
+      <c r="AB30" s="6">
+        <f t="shared" si="77"/>
+        <v>0.19488</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="78"/>
+        <v>0.17711999999999997</v>
+      </c>
+      <c r="AD30" s="6">
+        <f t="shared" si="79"/>
+        <v>0.20279999999999998</v>
+      </c>
+      <c r="AE30" s="6">
+        <f t="shared" si="80"/>
+        <v>0.18791999999999998</v>
+      </c>
+      <c r="AF30" s="6">
+        <f t="shared" si="81"/>
+        <v>0.21114000000000002</v>
+      </c>
+      <c r="AG30" s="6">
+        <f t="shared" si="82"/>
+        <v>0.19936000000000001</v>
+      </c>
+      <c r="AH30" s="6">
+        <f t="shared" si="83"/>
+        <v>0.21384</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL30" s="7" t="e">
+      <c r="AL30" s="6">
         <f>$N32/N32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM30" s="7" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN30" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO30" s="7" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP30" s="7" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ30" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="6">
+        <f t="shared" si="84"/>
+        <v>1.2367021276595747</v>
+      </c>
+      <c r="AN30" s="6">
+        <f t="shared" si="85"/>
+        <v>1.3362068965517242</v>
+      </c>
+      <c r="AO30" s="6">
+        <f t="shared" si="86"/>
+        <v>1.4176829268292686</v>
+      </c>
+      <c r="AP30" s="6">
+        <f t="shared" si="87"/>
+        <v>1.1923076923076925</v>
+      </c>
+      <c r="AQ30" s="6">
         <f>$N32/S32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR30" s="7" t="e">
-        <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS30" s="7" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT30" s="7" t="e">
+        <v>1.3362068965517242</v>
+      </c>
+      <c r="AR30" s="6">
+        <f t="shared" si="89"/>
+        <v>1.1892583120204605</v>
+      </c>
+      <c r="AS30" s="6">
+        <f t="shared" si="90"/>
+        <v>1.306179775280899</v>
+      </c>
+      <c r="AT30" s="6">
         <f>$N32/V32</f>
-        <v>#DIV/0!</v>
+        <v>1.1742424242424243</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N31" s="5">
-        <f>N29/60</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" ref="O31:V31" si="100">O29/60</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
+      <c r="N31" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O31" s="11">
+        <v>5.28</v>
+      </c>
+      <c r="P31" s="11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>5.53</v>
+      </c>
+      <c r="R31" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="S31" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="T31" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="U31" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V31" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N32" s="5">
-        <f>N30/60</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" ref="O32:V32" si="101">O30/60</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
+      <c r="N32" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O32" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="P32" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>3.28</v>
+      </c>
+      <c r="R32" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="S32" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="T32" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="U32" s="12">
+        <v>3.56</v>
+      </c>
+      <c r="V32" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -9282,7 +11418,7 @@
       <c r="J33" s="2">
         <v>16</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N33" s="2">
@@ -9404,95 +11540,113 @@
       <c r="J34" s="3">
         <v>71</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="N34" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O34" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="P34" s="11">
+        <v>4.68</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="R34" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="S34" s="11">
+        <v>5.68</v>
+      </c>
+      <c r="T34" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="U34" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="V34" s="11">
+        <v>5.75</v>
+      </c>
       <c r="Y34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z34" s="7">
+      <c r="Z34" s="6">
         <f xml:space="preserve"> (B34 * N34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7">
-        <f t="shared" ref="AA34:AA35" si="102" xml:space="preserve"> (C34 * O34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="7">
-        <f t="shared" ref="AB34:AB35" si="103" xml:space="preserve"> (D34 * P34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7">
-        <f t="shared" ref="AC34:AC35" si="104" xml:space="preserve"> (E34 * Q34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="7">
-        <f t="shared" ref="AD34:AD35" si="105" xml:space="preserve"> (F34 * R34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="7">
-        <f t="shared" ref="AE34:AE35" si="106" xml:space="preserve"> (G34 * S34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="7">
-        <f t="shared" ref="AF34:AF35" si="107" xml:space="preserve"> (H34 * T34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="7">
-        <f t="shared" ref="AG34:AG35" si="108" xml:space="preserve"> (I34 * U34) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="7">
-        <f t="shared" ref="AH34:AH35" si="109" xml:space="preserve"> (J34 * V34) / 1000</f>
-        <v>0</v>
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="AA34" s="6">
+        <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34) / 1000</f>
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="AB34" s="6">
+        <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34) / 1000</f>
+        <v>0.33695999999999998</v>
+      </c>
+      <c r="AC34" s="6">
+        <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34) / 1000</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="AD34" s="6">
+        <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34) / 1000</f>
+        <v>0.41111999999999999</v>
+      </c>
+      <c r="AE34" s="6">
+        <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34) / 1000</f>
+        <v>0.41464000000000001</v>
+      </c>
+      <c r="AF34" s="6">
+        <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34) / 1000</f>
+        <v>0.41256000000000004</v>
+      </c>
+      <c r="AG34" s="6">
+        <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34) / 1000</f>
+        <v>0.40460000000000002</v>
+      </c>
+      <c r="AH34" s="6">
+        <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34) / 1000</f>
+        <v>0.40825</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL34" s="7" t="e">
+      <c r="AL34" s="6">
         <f>$N36/N36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM34" s="7" t="e">
-        <f t="shared" ref="AM34:AM35" si="110">$N36/O36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN34" s="7" t="e">
-        <f t="shared" ref="AN34:AN35" si="111">$N36/P36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO34" s="7" t="e">
-        <f t="shared" ref="AO34:AO35" si="112">$N36/Q36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP34" s="7" t="e">
-        <f t="shared" ref="AP34:AP35" si="113">$N36/R36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ34" s="7" t="e">
-        <f t="shared" ref="AQ34" si="114">$N36/S36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR34" s="7" t="e">
-        <f t="shared" ref="AR34:AR35" si="115">$N36/T36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS34" s="7" t="e">
-        <f t="shared" ref="AS34:AS35" si="116">$N36/U36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT34" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="6">
+        <f t="shared" ref="AM34:AM35" si="99">$N36/O36</f>
+        <v>1.3375796178343948</v>
+      </c>
+      <c r="AN34" s="6">
+        <f t="shared" ref="AN34:AN35" si="100">$N36/P36</f>
+        <v>1.3461538461538463</v>
+      </c>
+      <c r="AO34" s="6">
+        <f t="shared" ref="AO34:AO35" si="101">$N36/Q36</f>
+        <v>1.1052631578947367</v>
+      </c>
+      <c r="AP34" s="6">
+        <f t="shared" ref="AP34:AP35" si="102">$N36/R36</f>
+        <v>1.1033274956217163</v>
+      </c>
+      <c r="AQ34" s="6">
+        <f t="shared" ref="AQ34" si="103">$N36/S36</f>
+        <v>1.1091549295774648</v>
+      </c>
+      <c r="AR34" s="6">
+        <f t="shared" ref="AR34:AR35" si="104">$N36/T36</f>
+        <v>1.0994764397905759</v>
+      </c>
+      <c r="AS34" s="6">
+        <f t="shared" ref="AS34:AS35" si="105">$N36/U36</f>
+        <v>1.0899653979238753</v>
+      </c>
+      <c r="AT34" s="6">
         <f>$N36/V36</f>
-        <v>#DIV/0!</v>
+        <v>1.0956521739130434</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -9526,208 +11680,208 @@
       <c r="J35" s="4">
         <v>54</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="N35" s="12">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="O35" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P35" s="12">
+        <v>4.03</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>3.15</v>
+      </c>
+      <c r="R35" s="12">
+        <v>3.73</v>
+      </c>
+      <c r="S35" s="12">
+        <v>3.83</v>
+      </c>
+      <c r="T35" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="U35" s="12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V35" s="12">
+        <v>3.41</v>
+      </c>
       <c r="Y35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="Z35" s="6">
         <f xml:space="preserve"> (B35 * N35) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="7">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="7">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="7">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="7">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="7">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="7">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="7">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="AA35" s="6">
+        <f t="shared" si="91"/>
+        <v>0.24599999999999997</v>
+      </c>
+      <c r="AB35" s="6">
+        <f t="shared" si="92"/>
+        <v>0.22568000000000002</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" si="93"/>
+        <v>0.1701</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="94"/>
+        <v>0.20141999999999999</v>
+      </c>
+      <c r="AE35" s="6">
+        <f t="shared" si="95"/>
+        <v>0.20682</v>
+      </c>
+      <c r="AF35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.22031999999999999</v>
+      </c>
+      <c r="AG35" s="6">
+        <f t="shared" si="97"/>
+        <v>0.23265000000000002</v>
+      </c>
+      <c r="AH35" s="6">
+        <f t="shared" si="98"/>
+        <v>0.18414000000000003</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL35" s="7" t="e">
+      <c r="AL35" s="6">
         <f>$N37/N37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM35" s="7" t="e">
-        <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN35" s="7" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO35" s="7" t="e">
-        <f t="shared" si="112"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP35" s="7" t="e">
-        <f t="shared" si="113"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ35" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="6">
+        <f t="shared" si="99"/>
+        <v>1.1853658536585368</v>
+      </c>
+      <c r="AN35" s="6">
+        <f t="shared" si="100"/>
+        <v>1.2059553349875931</v>
+      </c>
+      <c r="AO35" s="6">
+        <f t="shared" si="101"/>
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="AP35" s="6">
+        <f t="shared" si="102"/>
+        <v>1.3029490616621986</v>
+      </c>
+      <c r="AQ35" s="6">
         <f>$N37/S37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR35" s="7" t="e">
-        <f t="shared" si="115"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS35" s="7" t="e">
-        <f t="shared" si="116"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT35" s="7" t="e">
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="AR35" s="6">
+        <f t="shared" si="104"/>
+        <v>1.1911764705882353</v>
+      </c>
+      <c r="AS35" s="6">
+        <f t="shared" si="105"/>
+        <v>1.1489361702127658</v>
+      </c>
+      <c r="AT35" s="6">
         <f>$N37/V37</f>
-        <v>#DIV/0!</v>
+        <v>1.4252199413489737</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N36" s="5">
-        <f>N34/60</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" ref="O36:V36" si="117">O34/60</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
+      <c r="N36" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="O36" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="P36" s="11">
+        <v>4.68</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="R36" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="S36" s="11">
+        <v>5.68</v>
+      </c>
+      <c r="T36" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="U36" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="V36" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N37" s="5">
-        <f>N35/60</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" ref="O37:V37" si="118">O35/60</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="AT37" s="6"/>
+      <c r="N37" s="12">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="O37" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P37" s="12">
+        <v>4.03</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>3.15</v>
+      </c>
+      <c r="R37" s="12">
+        <v>3.73</v>
+      </c>
+      <c r="S37" s="12">
+        <v>3.83</v>
+      </c>
+      <c r="T37" s="12">
+        <v>4.08</v>
+      </c>
+      <c r="U37" s="12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V37" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -9760,7 +11914,7 @@
       <c r="J38" s="2">
         <v>16</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="N38" s="2">
@@ -9882,95 +12036,113 @@
       <c r="J39" s="3">
         <v>72</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="N39" s="11">
+        <v>6.06</v>
+      </c>
+      <c r="O39" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="P39" s="11">
+        <v>4.63</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="R39" s="11">
+        <v>5.56</v>
+      </c>
+      <c r="S39" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="T39" s="11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="U39" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="V39" s="11">
+        <v>5.78</v>
+      </c>
       <c r="Y39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z39" s="7">
+      <c r="Z39" s="6">
         <f xml:space="preserve"> (B39 * N39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="7">
-        <f t="shared" ref="AA39:AA40" si="119" xml:space="preserve"> (C39 * O39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="7">
-        <f t="shared" ref="AB39:AB40" si="120" xml:space="preserve"> (D39 * P39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="7">
-        <f t="shared" ref="AC39:AC40" si="121" xml:space="preserve"> (E39 * Q39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="7">
-        <f t="shared" ref="AD39:AD40" si="122" xml:space="preserve"> (F39 * R39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="7">
-        <f t="shared" ref="AE39:AE40" si="123" xml:space="preserve"> (G39 * S39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="7">
-        <f t="shared" ref="AF39:AF40" si="124" xml:space="preserve"> (H39 * T39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="7">
-        <f t="shared" ref="AG39:AG40" si="125" xml:space="preserve"> (I39 * U39) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="7">
-        <f t="shared" ref="AH39:AH40" si="126" xml:space="preserve"> (J39 * V39) / 1000</f>
-        <v>0</v>
+        <v>0.41814000000000001</v>
+      </c>
+      <c r="AA39" s="6">
+        <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39) / 1000</f>
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="AB39" s="6">
+        <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39) / 1000</f>
+        <v>0.33335999999999999</v>
+      </c>
+      <c r="AC39" s="6">
+        <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39) / 1000</f>
+        <v>0.34416000000000002</v>
+      </c>
+      <c r="AD39" s="6">
+        <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39) / 1000</f>
+        <v>0.39476</v>
+      </c>
+      <c r="AE39" s="6">
+        <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39) / 1000</f>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AF39" s="6">
+        <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39) / 1000</f>
+        <v>0.35856000000000005</v>
+      </c>
+      <c r="AG39" s="6">
+        <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39) / 1000</f>
+        <v>0.41256000000000004</v>
+      </c>
+      <c r="AH39" s="6">
+        <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39) / 1000</f>
+        <v>0.41616000000000003</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL39" s="7" t="e">
+      <c r="AL39" s="6">
         <f>$N41/N41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM39" s="7" t="e">
-        <f t="shared" ref="AM39:AM40" si="127">$N41/O41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN39" s="7" t="e">
-        <f t="shared" ref="AN39:AN40" si="128">$N41/P41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO39" s="7" t="e">
-        <f t="shared" ref="AO39:AO40" si="129">$N41/Q41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP39" s="7" t="e">
-        <f t="shared" ref="AP39:AP40" si="130">$N41/R41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ39" s="7" t="e">
-        <f t="shared" ref="AQ39" si="131">$N41/S41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR39" s="7" t="e">
-        <f t="shared" ref="AR39:AR40" si="132">$N41/T41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS39" s="7" t="e">
-        <f t="shared" ref="AS39:AS40" si="133">$N41/U41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT39" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="6">
+        <f t="shared" ref="AM39:AM40" si="114">$N41/O41</f>
+        <v>1.1119266055045871</v>
+      </c>
+      <c r="AN39" s="6">
+        <f t="shared" ref="AN39:AN40" si="115">$N41/P41</f>
+        <v>1.3088552915766738</v>
+      </c>
+      <c r="AO39" s="6">
+        <f t="shared" ref="AO39:AO40" si="116">$N41/Q41</f>
+        <v>1.2677824267782425</v>
+      </c>
+      <c r="AP39" s="6">
+        <f t="shared" ref="AP39:AP40" si="117">$N41/R41</f>
+        <v>1.0899280575539569</v>
+      </c>
+      <c r="AQ39" s="6">
+        <f t="shared" ref="AQ39" si="118">$N41/S41</f>
+        <v>1.0539130434782609</v>
+      </c>
+      <c r="AR39" s="6">
+        <f t="shared" ref="AR39:AR40" si="119">$N41/T41</f>
+        <v>1.2168674698795179</v>
+      </c>
+      <c r="AS39" s="6">
+        <f t="shared" ref="AS39:AS40" si="120">$N41/U41</f>
+        <v>1.0575916230366491</v>
+      </c>
+      <c r="AT39" s="6">
         <f>$N41/V41</f>
-        <v>#DIV/0!</v>
+        <v>1.0484429065743943</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -10004,171 +12176,171 @@
       <c r="J40" s="4">
         <v>54</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="N40" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="O40" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="P40" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="R40" s="12">
+        <v>3.43</v>
+      </c>
+      <c r="S40" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="T40" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="U40" s="12">
+        <v>3.58</v>
+      </c>
+      <c r="V40" s="12">
+        <v>3.81</v>
+      </c>
       <c r="Y40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="7">
+      <c r="Z40" s="6">
         <f xml:space="preserve"> (B40 * N40) / 1000</f>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="7">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="7">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="7">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="7">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="7">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="7">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="7">
-        <f t="shared" si="126"/>
-        <v>0</v>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AA40" s="6">
+        <f t="shared" si="106"/>
+        <v>0.23069000000000001</v>
+      </c>
+      <c r="AB40" s="6">
+        <f t="shared" si="107"/>
+        <v>0.216</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" si="108"/>
+        <v>0.19872000000000001</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="109"/>
+        <v>0.18522</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="110"/>
+        <v>0.17732000000000001</v>
+      </c>
+      <c r="AF40" s="6">
+        <f t="shared" si="111"/>
+        <v>0.22048000000000001</v>
+      </c>
+      <c r="AG40" s="6">
+        <f t="shared" si="112"/>
+        <v>0.18615999999999999</v>
+      </c>
+      <c r="AH40" s="6">
+        <f t="shared" si="113"/>
+        <v>0.20574000000000001</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AL40" s="7" t="e">
+      <c r="AL40" s="6">
         <f>$N42/N42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM40" s="7" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN40" s="7" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO40" s="7" t="e">
-        <f t="shared" si="129"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP40" s="7" t="e">
-        <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ40" s="7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="6">
+        <f t="shared" si="114"/>
+        <v>1.381074168797954</v>
+      </c>
+      <c r="AN40" s="6">
+        <f t="shared" si="115"/>
+        <v>1.35</v>
+      </c>
+      <c r="AO40" s="6">
+        <f t="shared" si="116"/>
+        <v>1.4673913043478262</v>
+      </c>
+      <c r="AP40" s="6">
+        <f t="shared" si="117"/>
+        <v>1.5743440233236152</v>
+      </c>
+      <c r="AQ40" s="6">
         <f>$N42/S42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR40" s="7" t="e">
-        <f t="shared" si="132"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS40" s="7" t="e">
-        <f t="shared" si="133"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT40" s="7" t="e">
+        <v>1.5835777126099708</v>
+      </c>
+      <c r="AR40" s="6">
+        <f t="shared" si="119"/>
+        <v>1.2980769230769231</v>
+      </c>
+      <c r="AS40" s="6">
+        <f t="shared" si="120"/>
+        <v>1.5083798882681565</v>
+      </c>
+      <c r="AT40" s="6">
         <f>$N42/V42</f>
-        <v>#DIV/0!</v>
+        <v>1.4173228346456694</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N41" s="5">
-        <f>N39/60</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" ref="O41:V41" si="134">O39/60</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="134"/>
-        <v>0</v>
+      <c r="N41" s="11">
+        <v>6.06</v>
+      </c>
+      <c r="O41" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="P41" s="11">
+        <v>4.63</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="R41" s="11">
+        <v>5.56</v>
+      </c>
+      <c r="S41" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="T41" s="11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="U41" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="V41" s="11">
+        <v>5.78</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N42" s="5">
-        <f>N40/60</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" ref="O42:V42" si="135">O40/60</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="135"/>
-        <v>0</v>
+      <c r="N42" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="O42" s="12">
+        <v>3.91</v>
+      </c>
+      <c r="P42" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="R42" s="12">
+        <v>3.43</v>
+      </c>
+      <c r="S42" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="T42" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="U42" s="12">
+        <v>3.58</v>
+      </c>
+      <c r="V42" s="12">
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="-150" windowWidth="14430" windowHeight="14805"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,11 +171,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,7 +338,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.82003999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.65664000000000011</c:v>
@@ -1418,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45537152"/>
-        <c:axId val="45741184"/>
+        <c:axId val="112132864"/>
+        <c:axId val="112135168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45537152"/>
+        <c:axId val="112132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45741184"/>
+        <c:crossAx val="112135168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45741184"/>
+        <c:axId val="112135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1660,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45537152"/>
+        <c:crossAx val="112132864"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,11 +2401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51825280"/>
-        <c:axId val="51983872"/>
+        <c:axId val="112476928"/>
+        <c:axId val="112479232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51825280"/>
+        <c:axId val="112476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51983872"/>
+        <c:crossAx val="112479232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2529,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51983872"/>
+        <c:axId val="112479232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -2639,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51825280"/>
+        <c:crossAx val="112476928"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -3950,11 +3950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76708096"/>
-        <c:axId val="101707136"/>
+        <c:axId val="112561152"/>
+        <c:axId val="112571904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76708096"/>
+        <c:axId val="112561152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101707136"/>
+        <c:crossAx val="112571904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101707136"/>
+        <c:axId val="112571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74"/>
@@ -4188,7 +4188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76708096"/>
+        <c:crossAx val="112561152"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4931,11 +4931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98603392"/>
-        <c:axId val="98605696"/>
+        <c:axId val="112368640"/>
+        <c:axId val="112375296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98603392"/>
+        <c:axId val="112368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98605696"/>
+        <c:crossAx val="112375296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5059,7 +5059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98605696"/>
+        <c:axId val="112375296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -5169,7 +5169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98603392"/>
+        <c:crossAx val="112368640"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6480,11 +6480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101140736"/>
-        <c:axId val="108593920"/>
+        <c:axId val="112417792"/>
+        <c:axId val="112424448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101140736"/>
+        <c:axId val="112417792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +6600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108593920"/>
+        <c:crossAx val="112424448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6608,7 +6608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108593920"/>
+        <c:axId val="112424448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -6718,7 +6718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101140736"/>
+        <c:crossAx val="112417792"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -8340,7 +8340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8350,8 +8350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK51" sqref="AK51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,55 +8361,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="Y1" s="10" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AK1" s="10" t="s">
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AK1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8567,39 +8567,39 @@
       <c r="M4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>21.58</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>17.28</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>17.579999999999998</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>17.75</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>18.46</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>18.46</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>18.510000000000002</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <v>18.48</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>18.55</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="6">
-        <f xml:space="preserve"> (B4 * N4) / 1000</f>
-        <v>0.82003999999999999</v>
+      <c r="Z4" s="6" t="e">
+        <f xml:space="preserve"> (B4 * N4) / R541000</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4) / 1000</f>
@@ -8707,31 +8707,31 @@
       <c r="M5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>4.6100000000000003</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>4.43</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>4.3600000000000003</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>3.8</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <v>4.25</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <v>4.28</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <v>3.88</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <v>3.91</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>4.08</v>
       </c>
       <c r="Y5" s="4" t="s">
@@ -8814,31 +8814,31 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>21.58</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>17.28</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>17.579999999999998</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>17.75</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>18.46</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>18.46</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>18.510000000000002</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>18.48</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>18.55</v>
       </c>
       <c r="Z6" s="5"/>
@@ -8861,31 +8861,31 @@
       <c r="AT6" s="5"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>4.6100000000000003</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>4.43</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>4.3600000000000003</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>3.8</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <v>4.25</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="11">
         <v>4.28</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <v>3.88</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>3.91</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <v>4.08</v>
       </c>
       <c r="Z7" s="5"/>
@@ -9063,31 +9063,31 @@
       <c r="M9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>11.35</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>7.48</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>8.85</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>9.33</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <v>9.35</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="10">
         <v>9.36</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>9.35</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="10">
         <v>9.35</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="10">
         <v>9.3800000000000008</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -9203,31 +9203,31 @@
       <c r="M10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>3.91</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>3.41</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <v>4.08</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <v>3.53</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="11">
         <v>3.93</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <v>3.25</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="11">
         <v>3.58</v>
       </c>
       <c r="Y10" s="4" t="s">
@@ -9310,31 +9310,31 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>11.35</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>7.48</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>8.85</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>9.33</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>9.35</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>9.36</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>9.35</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>9.35</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>9.3800000000000008</v>
       </c>
       <c r="Z11" s="5"/>
@@ -9357,31 +9357,31 @@
       <c r="AT11" s="5"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>3.91</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <v>3.41</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <v>4.08</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="11">
         <v>3.53</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="11">
         <v>3.93</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <v>3.25</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="11">
         <v>3.58</v>
       </c>
       <c r="Z12" s="5"/>
@@ -9559,31 +9559,31 @@
       <c r="M14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>7.85</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>6.16</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <v>7.21</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>7.2</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="10">
         <v>7.48</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="10">
         <v>7.5</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>7.46</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="10">
         <v>7.5</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="10">
         <v>7.5</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -9699,31 +9699,31 @@
       <c r="M15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>5.3</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>3.85</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>3.73</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>3.18</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>3.25</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <v>3.75</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="11">
         <v>3.68</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <v>3.33</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="11">
         <v>3.65</v>
       </c>
       <c r="Y15" s="4" t="s">
@@ -9806,31 +9806,31 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>7.85</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <v>6.16</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="10">
         <v>7.21</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>7.2</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="10">
         <v>7.48</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <v>7.5</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>7.46</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="10">
         <v>7.5</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>7.5</v>
       </c>
       <c r="Z16" s="5"/>
@@ -9853,31 +9853,31 @@
       <c r="AT16" s="5"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>5.3</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>3.85</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>3.73</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>3.18</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <v>3.25</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <v>3.75</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="11">
         <v>3.68</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <v>3.33</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="11">
         <v>3.65</v>
       </c>
       <c r="Z17" s="5"/>
@@ -10055,31 +10055,31 @@
       <c r="M19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>6.28</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>5.3</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="10">
         <v>4.68</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>5.7</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="10">
         <v>5.61</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="10">
         <v>5.7</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="10">
         <v>5.73</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="10">
         <v>5.71</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="10">
         <v>5.81</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -10195,31 +10195,31 @@
       <c r="M20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>5.0599999999999996</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <v>4.18</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <v>3.7</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <v>3.86</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <v>3.8</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="11">
         <v>3.31</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="11">
         <v>4.08</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="11">
         <v>3.76</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="11">
         <v>3.21</v>
       </c>
       <c r="Y20" s="4" t="s">
@@ -10302,31 +10302,31 @@
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <v>6.28</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <v>5.3</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="10">
         <v>4.68</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>5.7</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="10">
         <v>5.61</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="10">
         <v>5.7</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="10">
         <v>5.73</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="10">
         <v>5.71</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="10">
         <v>5.81</v>
       </c>
       <c r="Z21" s="5"/>
@@ -10349,31 +10349,31 @@
       <c r="AT21" s="5"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>5.0599999999999996</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <v>4.18</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <v>3.7</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>3.86</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <v>3.8</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="11">
         <v>3.31</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="11">
         <v>4.08</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <v>3.76</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <v>3.21</v>
       </c>
       <c r="Z22" s="5"/>
@@ -10551,31 +10551,31 @@
       <c r="M24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>6.23</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>5.26</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>5.43</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>5.76</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="10">
         <v>5.7</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <v>5.8</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="10">
         <v>5.71</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="10">
         <v>5.73</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="10">
         <v>5.76</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -10691,31 +10691,31 @@
       <c r="M25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>4.7</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="11">
         <v>3.88</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <v>3.3</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <v>3.71</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="11">
         <v>3.86</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="11">
         <v>3.61</v>
       </c>
-      <c r="U25" s="12">
+      <c r="U25" s="11">
         <v>3.63</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="11">
         <v>4.3099999999999996</v>
       </c>
       <c r="Y25" s="4" t="s">
@@ -10798,31 +10798,31 @@
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>6.23</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="10">
         <v>5.26</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="10">
         <v>5.43</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="10">
         <v>5.76</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="10">
         <v>5.7</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="10">
         <v>5.8</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="10">
         <v>5.71</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="10">
         <v>5.73</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="10">
         <v>5.76</v>
       </c>
       <c r="Z26" s="5"/>
@@ -10845,31 +10845,31 @@
       <c r="AT26" s="5"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <v>4.7</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="11">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="11">
         <v>3.88</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="11">
         <v>3.3</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <v>3.71</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="11">
         <v>3.86</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="11">
         <v>3.61</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="11">
         <v>3.63</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="11">
         <v>4.3099999999999996</v>
       </c>
       <c r="Z27" s="5"/>
@@ -11047,31 +11047,31 @@
       <c r="M29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <v>6.3</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="10">
         <v>5.28</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="10">
         <v>5.53</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="10">
         <v>5.7</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="10">
         <v>5.7</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="10">
         <v>5.8</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="10">
         <v>5.75</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="10">
         <v>5.71</v>
       </c>
       <c r="Y29" s="3" t="s">
@@ -11187,31 +11187,31 @@
       <c r="M30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="11">
         <v>3.76</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <v>3.48</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="11">
         <v>3.28</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="11">
         <v>3.9</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="11">
         <v>3.48</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="11">
         <v>3.91</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="11">
         <v>3.56</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="11">
         <v>3.96</v>
       </c>
       <c r="Y30" s="4" t="s">
@@ -11294,31 +11294,31 @@
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <v>6.3</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="10">
         <v>5.28</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="10">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <v>5.53</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="10">
         <v>5.7</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="10">
         <v>5.7</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="10">
         <v>5.8</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="10">
         <v>5.75</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <v>5.71</v>
       </c>
       <c r="Z31" s="5"/>
@@ -11341,31 +11341,31 @@
       <c r="AT31" s="5"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="11">
         <v>3.76</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="11">
         <v>3.48</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="11">
         <v>3.28</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="11">
         <v>3.9</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="11">
         <v>3.48</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="11">
         <v>3.91</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="11">
         <v>3.56</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="11">
         <v>3.96</v>
       </c>
       <c r="Z32" s="5"/>
@@ -11543,31 +11543,31 @@
       <c r="M34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>6.3</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="10">
         <v>4.71</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="10">
         <v>4.68</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="10">
         <v>5.7</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="10">
         <v>5.71</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="10">
         <v>5.68</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="10">
         <v>5.73</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="10">
         <v>5.78</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="10">
         <v>5.75</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -11683,31 +11683,31 @@
       <c r="M35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>4.8600000000000003</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="11">
         <v>4.03</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="11">
         <v>3.15</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="11">
         <v>3.73</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="11">
         <v>3.83</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="11">
         <v>4.08</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="11">
         <v>4.2300000000000004</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="11">
         <v>3.41</v>
       </c>
       <c r="Y35" s="4" t="s">
@@ -11790,31 +11790,31 @@
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N36" s="11">
+      <c r="N36" s="10">
         <v>6.3</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="10">
         <v>4.71</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="10">
         <v>4.68</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="10">
         <v>5.7</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="10">
         <v>5.71</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="10">
         <v>5.68</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="10">
         <v>5.73</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="10">
         <v>5.78</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="10">
         <v>5.75</v>
       </c>
       <c r="Z36" s="5"/>
@@ -11837,31 +11837,31 @@
       <c r="AT36" s="5"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <v>4.8600000000000003</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="11">
         <v>4.03</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="11">
         <v>3.15</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="11">
         <v>3.73</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="11">
         <v>3.83</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="11">
         <v>4.08</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="11">
         <v>4.2300000000000004</v>
       </c>
-      <c r="V37" s="12">
+      <c r="V37" s="11">
         <v>3.41</v>
       </c>
       <c r="Z37" s="5"/>
@@ -12039,31 +12039,31 @@
       <c r="M39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="10">
         <v>6.06</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="10">
         <v>5.45</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="10">
         <v>4.63</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="10">
         <v>4.78</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="10">
         <v>5.56</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="10">
         <v>5.75</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="10">
         <v>4.9800000000000004</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="10">
         <v>5.73</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="10">
         <v>5.78</v>
       </c>
       <c r="Y39" s="3" t="s">
@@ -12179,31 +12179,31 @@
       <c r="M40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>5.4</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <v>3.91</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>4</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>3.68</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="11">
         <v>3.43</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="11">
         <v>3.41</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="11">
         <v>4.16</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="11">
         <v>3.58</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="11">
         <v>3.81</v>
       </c>
       <c r="Y40" s="4" t="s">
@@ -12286,60 +12286,60 @@
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N41" s="11">
+      <c r="N41" s="10">
         <v>6.06</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="10">
         <v>5.45</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="10">
         <v>4.63</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="10">
         <v>4.78</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="10">
         <v>5.56</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="10">
         <v>5.75</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="10">
         <v>4.9800000000000004</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="10">
         <v>5.73</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="10">
         <v>5.78</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>5.4</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>3.91</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>4</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>3.68</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>3.43</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>3.41</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>4.16</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>3.58</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>3.81</v>
       </c>
     </row>

--- a/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_3/stats/PowerConsumption/PowerConsumption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14805"/>
+    <workbookView xWindow="3345" yWindow="-120" windowWidth="22080" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1"/>
-              <a:t>Average Energy Consumption</a:t>
+              <a:t>Energy Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -257,9 +257,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0417757672607162E-2"/>
+          <c:x val="8.4339984925763417E-2"/>
           <c:y val="5.273289031240392E-2"/>
-          <c:w val="0.90510744663137499"/>
+          <c:w val="0.89118525893932821"/>
           <c:h val="0.89091414539745339"/>
         </c:manualLayout>
       </c:layout>
@@ -338,31 +338,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>49.202399999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65664000000000011</c:v>
+                  <c:v>39.398400000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70319999999999994</c:v>
+                  <c:v>42.191999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67449999999999999</c:v>
+                  <c:v>40.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71994000000000002</c:v>
+                  <c:v>43.196400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71994000000000002</c:v>
+                  <c:v>43.196400000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72189000000000014</c:v>
+                  <c:v>43.313400000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72072000000000003</c:v>
+                  <c:v>43.243200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72345000000000004</c:v>
+                  <c:v>43.406999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,31 +441,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.27660000000000001</c:v>
+                  <c:v>16.596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26579999999999998</c:v>
+                  <c:v>15.947999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25288000000000005</c:v>
+                  <c:v>15.172800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>13.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2465</c:v>
+                  <c:v>14.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24824000000000002</c:v>
+                  <c:v>14.894400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23279999999999998</c:v>
+                  <c:v>13.967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21114000000000002</c:v>
+                  <c:v>12.668400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24480000000000002</c:v>
+                  <c:v>14.688000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,31 +508,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.55614999999999992</c:v>
+                  <c:v>33.369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36652000000000001</c:v>
+                  <c:v>21.991199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4425</c:v>
+                  <c:v>26.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46650000000000003</c:v>
+                  <c:v>27.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46750000000000003</c:v>
+                  <c:v>28.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46750000000000003</c:v>
+                  <c:v>28.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46750000000000003</c:v>
+                  <c:v>28.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46900000000000008</c:v>
+                  <c:v>28.140000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,31 +575,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.30380000000000001</c:v>
+                  <c:v>18.228000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24359999999999996</c:v>
+                  <c:v>14.615999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21114000000000002</c:v>
+                  <c:v>12.668400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17732000000000001</c:v>
+                  <c:v>10.639199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22031999999999999</c:v>
+                  <c:v>13.219199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17649999999999999</c:v>
+                  <c:v>10.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18864</c:v>
+                  <c:v>11.318400000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17549999999999999</c:v>
+                  <c:v>10.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>10.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,31 +641,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.47884999999999994</c:v>
+                  <c:v>28.730999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37575999999999998</c:v>
+                  <c:v>22.5456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42538999999999999</c:v>
+                  <c:v>25.523399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42480000000000001</c:v>
+                  <c:v>25.488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44880000000000003</c:v>
+                  <c:v>26.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4476</c:v>
+                  <c:v>26.856000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,31 +708,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.32859999999999995</c:v>
+                  <c:v>19.715999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2233</c:v>
+                  <c:v>13.398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20887999999999998</c:v>
+                  <c:v>12.5328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17172000000000001</c:v>
+                  <c:v>10.3032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17549999999999999</c:v>
+                  <c:v>10.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20624999999999999</c:v>
+                  <c:v>12.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19136</c:v>
+                  <c:v>11.4816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18315000000000001</c:v>
+                  <c:v>10.989000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1825</c:v>
+                  <c:v>10.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,31 +774,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.43331999999999998</c:v>
+                  <c:v>25.999200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.371</c:v>
+                  <c:v>22.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33227999999999996</c:v>
+                  <c:v>19.936799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4047</c:v>
+                  <c:v>24.282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39831</c:v>
+                  <c:v>23.898599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41040000000000004</c:v>
+                  <c:v>24.624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41256000000000004</c:v>
+                  <c:v>24.753600000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41682999999999998</c:v>
+                  <c:v>25.009799999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42413000000000001</c:v>
+                  <c:v>25.447800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,31 +841,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.31371999999999994</c:v>
+                  <c:v>18.823199999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25079999999999997</c:v>
+                  <c:v>15.047999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.222</c:v>
+                  <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21615999999999999</c:v>
+                  <c:v>12.9696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>13.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1986</c:v>
+                  <c:v>11.916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23664000000000002</c:v>
+                  <c:v>14.198400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21808</c:v>
+                  <c:v>13.0848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18618000000000001</c:v>
+                  <c:v>11.170800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,31 +908,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.41117999999999999</c:v>
+                  <c:v>24.6708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36819999999999997</c:v>
+                  <c:v>22.091999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38552999999999998</c:v>
+                  <c:v>23.131799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40895999999999999</c:v>
+                  <c:v>24.537599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41040000000000004</c:v>
+                  <c:v>24.624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41759999999999997</c:v>
+                  <c:v>25.055999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41111999999999999</c:v>
+                  <c:v>24.667200000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41256000000000004</c:v>
+                  <c:v>24.753600000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41471999999999998</c:v>
+                  <c:v>24.883199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,31 +975,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.29140000000000005</c:v>
+                  <c:v>17.484000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24900000000000003</c:v>
+                  <c:v>14.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22503999999999999</c:v>
+                  <c:v>13.5024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18479999999999999</c:v>
+                  <c:v>11.087999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20033999999999999</c:v>
+                  <c:v>12.0204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20843999999999999</c:v>
+                  <c:v>12.506399999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20216000000000001</c:v>
+                  <c:v>12.1296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19601999999999997</c:v>
+                  <c:v>11.761199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21549999999999997</c:v>
+                  <c:v>12.929999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,31 +1042,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.42209999999999998</c:v>
+                  <c:v>25.325999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37487999999999999</c:v>
+                  <c:v>22.492799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33479999999999999</c:v>
+                  <c:v>20.088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39816000000000001</c:v>
+                  <c:v>23.889600000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41040000000000004</c:v>
+                  <c:v>24.624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41040000000000004</c:v>
+                  <c:v>24.624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41759999999999997</c:v>
+                  <c:v>25.055999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41399999999999998</c:v>
+                  <c:v>24.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41682999999999998</c:v>
+                  <c:v>25.009799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,31 +1109,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.28365000000000001</c:v>
+                  <c:v>17.019000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23311999999999997</c:v>
+                  <c:v>13.9872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19488</c:v>
+                  <c:v>11.6928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17711999999999997</c:v>
+                  <c:v>10.627199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20279999999999998</c:v>
+                  <c:v>12.167999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18791999999999998</c:v>
+                  <c:v>11.275199999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21114000000000002</c:v>
+                  <c:v>12.668400000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19936000000000001</c:v>
+                  <c:v>11.961600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21384</c:v>
+                  <c:v>12.830399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,31 +1176,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.42209999999999998</c:v>
+                  <c:v>25.325999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32969999999999999</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33695999999999998</c:v>
+                  <c:v>20.217599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41040000000000004</c:v>
+                  <c:v>24.624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41111999999999999</c:v>
+                  <c:v>24.667200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41464000000000001</c:v>
+                  <c:v>24.878399999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41256000000000004</c:v>
+                  <c:v>24.753600000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40460000000000002</c:v>
+                  <c:v>24.276</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40825</c:v>
+                  <c:v>24.495000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,31 +1243,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.29160000000000003</c:v>
+                  <c:v>17.495999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24599999999999997</c:v>
+                  <c:v>14.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22568000000000002</c:v>
+                  <c:v>13.540800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1701</c:v>
+                  <c:v>10.206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20141999999999999</c:v>
+                  <c:v>12.085199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20682</c:v>
+                  <c:v>12.409199999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22031999999999999</c:v>
+                  <c:v>13.219199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23265000000000002</c:v>
+                  <c:v>13.959000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18414000000000003</c:v>
+                  <c:v>11.048400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,31 +1310,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.41814000000000001</c:v>
+                  <c:v>25.088399999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38150000000000001</c:v>
+                  <c:v>22.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33335999999999999</c:v>
+                  <c:v>20.001600000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34416000000000002</c:v>
+                  <c:v>20.649600000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39476</c:v>
+                  <c:v>23.685599999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41399999999999998</c:v>
+                  <c:v>24.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35856000000000005</c:v>
+                  <c:v>21.513600000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41256000000000004</c:v>
+                  <c:v>24.753600000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41616000000000003</c:v>
+                  <c:v>24.969600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,31 +1377,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>19.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23069000000000001</c:v>
+                  <c:v>13.8414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.216</c:v>
+                  <c:v>12.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19872000000000001</c:v>
+                  <c:v>11.923200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18522</c:v>
+                  <c:v>11.113200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17732000000000001</c:v>
+                  <c:v>10.639199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22048000000000001</c:v>
+                  <c:v>13.228800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18615999999999999</c:v>
+                  <c:v>11.169600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20574000000000001</c:v>
+                  <c:v>12.344400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112132864"/>
-        <c:axId val="112135168"/>
+        <c:axId val="111018752"/>
+        <c:axId val="111021056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112132864"/>
+        <c:axId val="111018752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112135168"/>
+        <c:crossAx val="111021056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,10 +1546,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112135168"/>
+        <c:axId val="111021056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1599,12 +1599,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1600"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-                  <a:t> Energy Consumption (KiloJoules)</a:t>
+                  <a:t>Energy Consumption (Kilo Watts)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
@@ -1614,8 +1610,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.4825990775752983E-4"/>
-              <c:y val="0.26289160896769176"/>
+              <c:x val="6.4825864740423675E-4"/>
+              <c:y val="0.34054955053399744"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1660,9 +1656,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112132864"/>
+        <c:crossAx val="111018752"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2401,11 +2399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112476928"/>
-        <c:axId val="112479232"/>
+        <c:axId val="111096576"/>
+        <c:axId val="111098880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112476928"/>
+        <c:axId val="111096576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112479232"/>
+        <c:crossAx val="111098880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2529,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112479232"/>
+        <c:axId val="111098880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -2639,7 +2637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112476928"/>
+        <c:crossAx val="111096576"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -3950,11 +3948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112561152"/>
-        <c:axId val="112571904"/>
+        <c:axId val="111967232"/>
+        <c:axId val="111977984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112561152"/>
+        <c:axId val="111967232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112571904"/>
+        <c:crossAx val="111977984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112571904"/>
+        <c:axId val="111977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74"/>
@@ -4188,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112561152"/>
+        <c:crossAx val="111967232"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4931,11 +4929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112368640"/>
-        <c:axId val="112375296"/>
+        <c:axId val="111844352"/>
+        <c:axId val="111851008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112368640"/>
+        <c:axId val="111844352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112375296"/>
+        <c:crossAx val="111851008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5059,7 +5057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112375296"/>
+        <c:axId val="111851008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -5169,7 +5167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112368640"/>
+        <c:crossAx val="111844352"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -6480,11 +6478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112417792"/>
-        <c:axId val="112424448"/>
+        <c:axId val="111891968"/>
+        <c:axId val="111902720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112417792"/>
+        <c:axId val="111891968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +6598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112424448"/>
+        <c:crossAx val="111902720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6608,7 +6606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112424448"/>
+        <c:axId val="111902720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.5"/>
@@ -6718,7 +6716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112417792"/>
+        <c:crossAx val="111891968"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
@@ -7926,16 +7924,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>502662</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>297319</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>232683</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>21155</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>186785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7988,16 +7986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>387495</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>572984</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>140030</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>59376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8350,8 +8348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI34" sqref="AI34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,41 +8595,41 @@
       <c r="Y4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="6" t="e">
-        <f xml:space="preserve"> (B4 * N4) / R541000</f>
-        <v>#DIV/0!</v>
+      <c r="Z4" s="6">
+        <f xml:space="preserve"> (B4 * N4 * 60) / 1000</f>
+        <v>49.202399999999997</v>
       </c>
       <c r="AA4" s="6">
-        <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4) / 1000</f>
-        <v>0.65664000000000011</v>
+        <f t="shared" ref="AA4:AH4" si="0" xml:space="preserve"> (C4 * O4 * 60) / 1000</f>
+        <v>39.398400000000009</v>
       </c>
       <c r="AB4" s="6">
         <f t="shared" si="0"/>
-        <v>0.70319999999999994</v>
+        <v>42.191999999999993</v>
       </c>
       <c r="AC4" s="6">
         <f t="shared" si="0"/>
-        <v>0.67449999999999999</v>
+        <v>40.47</v>
       </c>
       <c r="AD4" s="6">
         <f t="shared" si="0"/>
-        <v>0.71994000000000002</v>
+        <v>43.196400000000004</v>
       </c>
       <c r="AE4" s="6">
         <f t="shared" si="0"/>
-        <v>0.71994000000000002</v>
+        <v>43.196400000000004</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" si="0"/>
-        <v>0.72189000000000014</v>
+        <v>43.313400000000009</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" si="0"/>
-        <v>0.72072000000000003</v>
+        <v>43.243200000000002</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" si="0"/>
-        <v>0.72345000000000004</v>
+        <v>43.406999999999996</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>1</v>
@@ -8738,40 +8736,40 @@
         <v>2</v>
       </c>
       <c r="Z5" s="6">
-        <f xml:space="preserve"> (B5 * N5) / 1000</f>
-        <v>0.27660000000000001</v>
+        <f xml:space="preserve"> (B5 * N5 * 60) / 1000</f>
+        <v>16.596</v>
       </c>
       <c r="AA5" s="6">
-        <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5) / 1000</f>
-        <v>0.26579999999999998</v>
+        <f t="shared" ref="AA5" si="2" xml:space="preserve"> (C5 * O5 * 60) / 1000</f>
+        <v>15.947999999999997</v>
       </c>
       <c r="AB5" s="6">
-        <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5) / 1000</f>
-        <v>0.25288000000000005</v>
+        <f t="shared" ref="AB5" si="3" xml:space="preserve"> (D5 * P5 * 60) / 1000</f>
+        <v>15.172800000000001</v>
       </c>
       <c r="AC5" s="6">
-        <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5) / 1000</f>
-        <v>0.22800000000000001</v>
+        <f t="shared" ref="AC5" si="4" xml:space="preserve"> (E5 * Q5 * 60) / 1000</f>
+        <v>13.68</v>
       </c>
       <c r="AD5" s="6">
-        <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5) / 1000</f>
-        <v>0.2465</v>
+        <f t="shared" ref="AD5" si="5" xml:space="preserve"> (F5 * R5 * 60) / 1000</f>
+        <v>14.79</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5) / 1000</f>
-        <v>0.24824000000000002</v>
+        <f t="shared" ref="AE5" si="6" xml:space="preserve"> (G5 * S5 * 60) / 1000</f>
+        <v>14.894400000000001</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5) / 1000</f>
-        <v>0.23279999999999998</v>
+        <f t="shared" ref="AF5" si="7" xml:space="preserve"> (H5 * T5 * 60) / 1000</f>
+        <v>13.967999999999998</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5) / 1000</f>
-        <v>0.21114000000000002</v>
+        <f t="shared" ref="AG5" si="8" xml:space="preserve"> (I5 * U5 * 60) / 1000</f>
+        <v>12.668400000000002</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5) / 1000</f>
-        <v>0.24480000000000002</v>
+        <f t="shared" ref="AH5" si="9" xml:space="preserve"> (J5 * V5 * 60) / 1000</f>
+        <v>14.688000000000001</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>2</v>
@@ -9094,40 +9092,40 @@
         <v>1</v>
       </c>
       <c r="Z9" s="6">
-        <f xml:space="preserve"> (B9 * N9) / 1000</f>
-        <v>0.55614999999999992</v>
+        <f xml:space="preserve"> (B9 * N9 * 60) / 1000</f>
+        <v>33.369</v>
       </c>
       <c r="AA9" s="6">
-        <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9) / 1000</f>
-        <v>0.36652000000000001</v>
+        <f t="shared" ref="AA9:AA10" si="16" xml:space="preserve"> (C9 * O9 * 60) / 1000</f>
+        <v>21.991199999999999</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9) / 1000</f>
-        <v>0.4425</v>
+        <f t="shared" ref="AB9:AB10" si="17" xml:space="preserve"> (D9 * P9 * 60) / 1000</f>
+        <v>26.55</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9) / 1000</f>
-        <v>0.46650000000000003</v>
+        <f t="shared" ref="AC9:AC10" si="18" xml:space="preserve"> (E9 * Q9 * 60) / 1000</f>
+        <v>27.99</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9) / 1000</f>
-        <v>0.46750000000000003</v>
+        <f t="shared" ref="AD9:AD10" si="19" xml:space="preserve"> (F9 * R9 * 60) / 1000</f>
+        <v>28.05</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9) / 1000</f>
-        <v>0.46800000000000003</v>
+        <f t="shared" ref="AE9:AE10" si="20" xml:space="preserve"> (G9 * S9 * 60) / 1000</f>
+        <v>28.08</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9) / 1000</f>
-        <v>0.46750000000000003</v>
+        <f t="shared" ref="AF9:AF10" si="21" xml:space="preserve"> (H9 * T9 * 60) / 1000</f>
+        <v>28.05</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9) / 1000</f>
-        <v>0.46750000000000003</v>
+        <f t="shared" ref="AG9:AG10" si="22" xml:space="preserve"> (I9 * U9 * 60) / 1000</f>
+        <v>28.05</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9) / 1000</f>
-        <v>0.46900000000000008</v>
+        <f t="shared" ref="AH9:AH10" si="23" xml:space="preserve"> (J9 * V9 * 60) / 1000</f>
+        <v>28.140000000000004</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>1</v>
@@ -9234,40 +9232,40 @@
         <v>2</v>
       </c>
       <c r="Z10" s="6">
-        <f xml:space="preserve"> (B10 * N10) / 1000</f>
-        <v>0.30380000000000001</v>
+        <f xml:space="preserve"> (B10 * N10 * 60) / 1000</f>
+        <v>18.228000000000002</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="16"/>
-        <v>0.24359999999999996</v>
+        <v>14.615999999999998</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="17"/>
-        <v>0.21114000000000002</v>
+        <v>12.668400000000002</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="18"/>
-        <v>0.17732000000000001</v>
+        <v>10.639199999999999</v>
       </c>
       <c r="AD10" s="6">
         <f t="shared" si="19"/>
-        <v>0.22031999999999999</v>
+        <v>13.219199999999999</v>
       </c>
       <c r="AE10" s="6">
         <f t="shared" si="20"/>
-        <v>0.17649999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="AF10" s="6">
         <f t="shared" si="21"/>
-        <v>0.18864</v>
+        <v>11.318400000000002</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" si="22"/>
-        <v>0.17549999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="AH10" s="6">
         <f t="shared" si="23"/>
-        <v>0.17899999999999999</v>
+        <v>10.74</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>2</v>
@@ -9590,40 +9588,40 @@
         <v>1</v>
       </c>
       <c r="Z14" s="6">
-        <f xml:space="preserve"> (B14 * N14) / 1000</f>
-        <v>0.47884999999999994</v>
+        <f xml:space="preserve"> (B14 * N14 * 60) / 1000</f>
+        <v>28.730999999999998</v>
       </c>
       <c r="AA14" s="6">
-        <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14) / 1000</f>
-        <v>0.37575999999999998</v>
+        <f t="shared" ref="AA14:AA15" si="31" xml:space="preserve"> (C14 * O14 * 60) / 1000</f>
+        <v>22.5456</v>
       </c>
       <c r="AB14" s="6">
-        <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14) / 1000</f>
-        <v>0.42538999999999999</v>
+        <f t="shared" ref="AB14:AB15" si="32" xml:space="preserve"> (D14 * P14 * 60) / 1000</f>
+        <v>25.523399999999999</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14) / 1000</f>
-        <v>0.42480000000000001</v>
+        <f t="shared" ref="AC14:AC15" si="33" xml:space="preserve"> (E14 * Q14 * 60) / 1000</f>
+        <v>25.488</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14) / 1000</f>
-        <v>0.44880000000000003</v>
+        <f t="shared" ref="AD14:AD15" si="34" xml:space="preserve"> (F14 * R14 * 60) / 1000</f>
+        <v>26.928000000000001</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14) / 1000</f>
-        <v>0.45</v>
+        <f t="shared" ref="AE14:AE15" si="35" xml:space="preserve"> (G14 * S14 * 60) / 1000</f>
+        <v>27</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14) / 1000</f>
-        <v>0.4476</v>
+        <f t="shared" ref="AF14:AF15" si="36" xml:space="preserve"> (H14 * T14 * 60) / 1000</f>
+        <v>26.856000000000002</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14) / 1000</f>
-        <v>0.45</v>
+        <f t="shared" ref="AG14:AG15" si="37" xml:space="preserve"> (I14 * U14 * 60) / 1000</f>
+        <v>27</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14) / 1000</f>
-        <v>0.45</v>
+        <f t="shared" ref="AH14:AH15" si="38" xml:space="preserve"> (J14 * V14 * 60) / 1000</f>
+        <v>27</v>
       </c>
       <c r="AK14" s="3" t="s">
         <v>1</v>
@@ -9730,40 +9728,40 @@
         <v>2</v>
       </c>
       <c r="Z15" s="6">
-        <f xml:space="preserve"> (B15 * N15) / 1000</f>
-        <v>0.32859999999999995</v>
+        <f xml:space="preserve"> (B15 * N15 * 60) / 1000</f>
+        <v>19.715999999999998</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="31"/>
-        <v>0.2233</v>
+        <v>13.398</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="32"/>
-        <v>0.20887999999999998</v>
+        <v>12.5328</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="33"/>
-        <v>0.17172000000000001</v>
+        <v>10.3032</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" si="34"/>
-        <v>0.17549999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="35"/>
-        <v>0.20624999999999999</v>
+        <v>12.375</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="36"/>
-        <v>0.19136</v>
+        <v>11.4816</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="37"/>
-        <v>0.18315000000000001</v>
+        <v>10.989000000000001</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="38"/>
-        <v>0.1825</v>
+        <v>10.95</v>
       </c>
       <c r="AK15" s="4" t="s">
         <v>2</v>
@@ -10086,40 +10084,40 @@
         <v>1</v>
       </c>
       <c r="Z19" s="6">
-        <f xml:space="preserve"> (B19 * N19) / 1000</f>
-        <v>0.43331999999999998</v>
+        <f xml:space="preserve"> (B19 * N19 * 60) / 1000</f>
+        <v>25.999200000000002</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19) / 1000</f>
-        <v>0.371</v>
+        <f t="shared" ref="AA19:AA20" si="46" xml:space="preserve"> (C19 * O19 * 60) / 1000</f>
+        <v>22.26</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19) / 1000</f>
-        <v>0.33227999999999996</v>
+        <f t="shared" ref="AB19:AB20" si="47" xml:space="preserve"> (D19 * P19 * 60) / 1000</f>
+        <v>19.936799999999998</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19) / 1000</f>
-        <v>0.4047</v>
+        <f t="shared" ref="AC19:AC20" si="48" xml:space="preserve"> (E19 * Q19 * 60) / 1000</f>
+        <v>24.282</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19) / 1000</f>
-        <v>0.39831</v>
+        <f t="shared" ref="AD19:AD20" si="49" xml:space="preserve"> (F19 * R19 * 60) / 1000</f>
+        <v>23.898599999999998</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19) / 1000</f>
-        <v>0.41040000000000004</v>
+        <f t="shared" ref="AE19:AE20" si="50" xml:space="preserve"> (G19 * S19 * 60) / 1000</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19) / 1000</f>
-        <v>0.41256000000000004</v>
+        <f t="shared" ref="AF19:AF20" si="51" xml:space="preserve"> (H19 * T19 * 60) / 1000</f>
+        <v>24.753600000000002</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19) / 1000</f>
-        <v>0.41682999999999998</v>
+        <f t="shared" ref="AG19:AG20" si="52" xml:space="preserve"> (I19 * U19 * 60) / 1000</f>
+        <v>25.009799999999998</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19) / 1000</f>
-        <v>0.42413000000000001</v>
+        <f t="shared" ref="AH19:AH20" si="53" xml:space="preserve"> (J19 * V19 * 60) / 1000</f>
+        <v>25.447800000000001</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
@@ -10226,40 +10224,40 @@
         <v>2</v>
       </c>
       <c r="Z20" s="6">
-        <f xml:space="preserve"> (B20 * N20) / 1000</f>
-        <v>0.31371999999999994</v>
+        <f xml:space="preserve"> (B20 * N20 * 60) / 1000</f>
+        <v>18.823199999999996</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="46"/>
-        <v>0.25079999999999997</v>
+        <v>15.047999999999998</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="47"/>
-        <v>0.222</v>
+        <v>13.32</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="48"/>
-        <v>0.21615999999999999</v>
+        <v>12.9696</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="49"/>
-        <v>0.22800000000000001</v>
+        <v>13.68</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="50"/>
-        <v>0.1986</v>
+        <v>11.916</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="51"/>
-        <v>0.23664000000000002</v>
+        <v>14.198400000000001</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="52"/>
-        <v>0.21808</v>
+        <v>13.0848</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="53"/>
-        <v>0.18618000000000001</v>
+        <v>11.170800000000002</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>2</v>
@@ -10582,40 +10580,40 @@
         <v>1</v>
       </c>
       <c r="Z24" s="6">
-        <f xml:space="preserve"> (B24 * N24) / 1000</f>
-        <v>0.41117999999999999</v>
+        <f xml:space="preserve"> (B24 * N24 * 60) / 1000</f>
+        <v>24.6708</v>
       </c>
       <c r="AA24" s="6">
-        <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24) / 1000</f>
-        <v>0.36819999999999997</v>
+        <f t="shared" ref="AA24:AA25" si="61" xml:space="preserve"> (C24 * O24 * 60) / 1000</f>
+        <v>22.091999999999999</v>
       </c>
       <c r="AB24" s="6">
-        <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24) / 1000</f>
-        <v>0.38552999999999998</v>
+        <f t="shared" ref="AB24:AB25" si="62" xml:space="preserve"> (D24 * P24 * 60) / 1000</f>
+        <v>23.131799999999998</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24) / 1000</f>
-        <v>0.40895999999999999</v>
+        <f t="shared" ref="AC24:AC25" si="63" xml:space="preserve"> (E24 * Q24 * 60) / 1000</f>
+        <v>24.537599999999998</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24) / 1000</f>
-        <v>0.41040000000000004</v>
+        <f t="shared" ref="AD24:AD25" si="64" xml:space="preserve"> (F24 * R24 * 60) / 1000</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24) / 1000</f>
-        <v>0.41759999999999997</v>
+        <f t="shared" ref="AE24:AE25" si="65" xml:space="preserve"> (G24 * S24 * 60) / 1000</f>
+        <v>25.055999999999997</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24) / 1000</f>
-        <v>0.41111999999999999</v>
+        <f t="shared" ref="AF24:AF25" si="66" xml:space="preserve"> (H24 * T24 * 60) / 1000</f>
+        <v>24.667200000000001</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24) / 1000</f>
-        <v>0.41256000000000004</v>
+        <f t="shared" ref="AG24:AG25" si="67" xml:space="preserve"> (I24 * U24 * 60) / 1000</f>
+        <v>24.753600000000002</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24) / 1000</f>
-        <v>0.41471999999999998</v>
+        <f t="shared" ref="AH24:AH25" si="68" xml:space="preserve"> (J24 * V24 * 60) / 1000</f>
+        <v>24.883199999999999</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>1</v>
@@ -10722,40 +10720,40 @@
         <v>2</v>
       </c>
       <c r="Z25" s="6">
-        <f xml:space="preserve"> (B25 * N25) / 1000</f>
-        <v>0.29140000000000005</v>
+        <f xml:space="preserve"> (B25 * N25 * 60) / 1000</f>
+        <v>17.484000000000005</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>0.24900000000000003</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="AB25" s="6">
         <f t="shared" si="62"/>
-        <v>0.22503999999999999</v>
+        <v>13.5024</v>
       </c>
       <c r="AC25" s="6">
         <f t="shared" si="63"/>
-        <v>0.18479999999999999</v>
+        <v>11.087999999999997</v>
       </c>
       <c r="AD25" s="6">
         <f t="shared" si="64"/>
-        <v>0.20033999999999999</v>
+        <v>12.0204</v>
       </c>
       <c r="AE25" s="6">
         <f t="shared" si="65"/>
-        <v>0.20843999999999999</v>
+        <v>12.506399999999999</v>
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="66"/>
-        <v>0.20216000000000001</v>
+        <v>12.1296</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" si="67"/>
-        <v>0.19601999999999997</v>
+        <v>11.761199999999999</v>
       </c>
       <c r="AH25" s="6">
         <f t="shared" si="68"/>
-        <v>0.21549999999999997</v>
+        <v>12.929999999999998</v>
       </c>
       <c r="AK25" s="4" t="s">
         <v>2</v>
@@ -11078,40 +11076,40 @@
         <v>1</v>
       </c>
       <c r="Z29" s="6">
-        <f xml:space="preserve"> (B29 * N29) / 1000</f>
-        <v>0.42209999999999998</v>
+        <f xml:space="preserve"> (B29 * N29 * 60) / 1000</f>
+        <v>25.325999999999997</v>
       </c>
       <c r="AA29" s="6">
-        <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29) / 1000</f>
-        <v>0.37487999999999999</v>
+        <f t="shared" ref="AA29:AA30" si="76" xml:space="preserve"> (C29 * O29 * 60) / 1000</f>
+        <v>22.492799999999999</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29) / 1000</f>
-        <v>0.33479999999999999</v>
+        <f t="shared" ref="AB29:AB30" si="77" xml:space="preserve"> (D29 * P29 * 60) / 1000</f>
+        <v>20.088000000000001</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29) / 1000</f>
-        <v>0.39816000000000001</v>
+        <f t="shared" ref="AC29:AC30" si="78" xml:space="preserve"> (E29 * Q29 * 60) / 1000</f>
+        <v>23.889600000000002</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29) / 1000</f>
-        <v>0.41040000000000004</v>
+        <f t="shared" ref="AD29:AD30" si="79" xml:space="preserve"> (F29 * R29 * 60) / 1000</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29) / 1000</f>
-        <v>0.41040000000000004</v>
+        <f t="shared" ref="AE29:AE30" si="80" xml:space="preserve"> (G29 * S29 * 60) / 1000</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29) / 1000</f>
-        <v>0.41759999999999997</v>
+        <f t="shared" ref="AF29:AF30" si="81" xml:space="preserve"> (H29 * T29 * 60) / 1000</f>
+        <v>25.055999999999997</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29) / 1000</f>
-        <v>0.41399999999999998</v>
+        <f t="shared" ref="AG29:AG30" si="82" xml:space="preserve"> (I29 * U29 * 60) / 1000</f>
+        <v>24.84</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29) / 1000</f>
-        <v>0.41682999999999998</v>
+        <f t="shared" ref="AH29:AH30" si="83" xml:space="preserve"> (J29 * V29 * 60) / 1000</f>
+        <v>25.009799999999998</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>1</v>
@@ -11218,40 +11216,40 @@
         <v>2</v>
       </c>
       <c r="Z30" s="6">
-        <f xml:space="preserve"> (B30 * N30) / 1000</f>
-        <v>0.28365000000000001</v>
+        <f xml:space="preserve"> (B30 * N30 * 60) / 1000</f>
+        <v>17.019000000000002</v>
       </c>
       <c r="AA30" s="6">
         <f t="shared" si="76"/>
-        <v>0.23311999999999997</v>
+        <v>13.9872</v>
       </c>
       <c r="AB30" s="6">
         <f t="shared" si="77"/>
-        <v>0.19488</v>
+        <v>11.6928</v>
       </c>
       <c r="AC30" s="6">
         <f t="shared" si="78"/>
-        <v>0.17711999999999997</v>
+        <v>10.627199999999998</v>
       </c>
       <c r="AD30" s="6">
         <f t="shared" si="79"/>
-        <v>0.20279999999999998</v>
+        <v>12.167999999999997</v>
       </c>
       <c r="AE30" s="6">
         <f t="shared" si="80"/>
-        <v>0.18791999999999998</v>
+        <v>11.275199999999998</v>
       </c>
       <c r="AF30" s="6">
         <f t="shared" si="81"/>
-        <v>0.21114000000000002</v>
+        <v>12.668400000000002</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" si="82"/>
-        <v>0.19936000000000001</v>
+        <v>11.961600000000001</v>
       </c>
       <c r="AH30" s="6">
         <f t="shared" si="83"/>
-        <v>0.21384</v>
+        <v>12.830399999999999</v>
       </c>
       <c r="AK30" s="4" t="s">
         <v>2</v>
@@ -11574,40 +11572,40 @@
         <v>1</v>
       </c>
       <c r="Z34" s="6">
-        <f xml:space="preserve"> (B34 * N34) / 1000</f>
-        <v>0.42209999999999998</v>
+        <f xml:space="preserve"> (B34 * N34 * 60) / 1000</f>
+        <v>25.325999999999997</v>
       </c>
       <c r="AA34" s="6">
-        <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34) / 1000</f>
-        <v>0.32969999999999999</v>
+        <f t="shared" ref="AA34:AA35" si="91" xml:space="preserve"> (C34 * O34 * 60) / 1000</f>
+        <v>19.782</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34) / 1000</f>
-        <v>0.33695999999999998</v>
+        <f t="shared" ref="AB34:AB35" si="92" xml:space="preserve"> (D34 * P34 * 60) / 1000</f>
+        <v>20.217599999999997</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34) / 1000</f>
-        <v>0.41040000000000004</v>
+        <f t="shared" ref="AC34:AC35" si="93" xml:space="preserve"> (E34 * Q34 * 60) / 1000</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34) / 1000</f>
-        <v>0.41111999999999999</v>
+        <f t="shared" ref="AD34:AD35" si="94" xml:space="preserve"> (F34 * R34 * 60) / 1000</f>
+        <v>24.667200000000001</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34) / 1000</f>
-        <v>0.41464000000000001</v>
+        <f t="shared" ref="AE34:AE35" si="95" xml:space="preserve"> (G34 * S34 * 60) / 1000</f>
+        <v>24.878399999999999</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34) / 1000</f>
-        <v>0.41256000000000004</v>
+        <f t="shared" ref="AF34:AF35" si="96" xml:space="preserve"> (H34 * T34 * 60) / 1000</f>
+        <v>24.753600000000002</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34) / 1000</f>
-        <v>0.40460000000000002</v>
+        <f t="shared" ref="AG34:AG35" si="97" xml:space="preserve"> (I34 * U34 * 60) / 1000</f>
+        <v>24.276</v>
       </c>
       <c r="AH34" s="6">
-        <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34) / 1000</f>
-        <v>0.40825</v>
+        <f t="shared" ref="AH34:AH35" si="98" xml:space="preserve"> (J34 * V34 * 60) / 1000</f>
+        <v>24.495000000000001</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>1</v>
@@ -11714,40 +11712,40 @@
         <v>2</v>
       </c>
       <c r="Z35" s="6">
-        <f xml:space="preserve"> (B35 * N35) / 1000</f>
-        <v>0.29160000000000003</v>
+        <f xml:space="preserve"> (B35 * N35 * 60) / 1000</f>
+        <v>17.495999999999999</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="91"/>
-        <v>0.24599999999999997</v>
+        <v>14.759999999999998</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="92"/>
-        <v>0.22568000000000002</v>
+        <v>13.540800000000001</v>
       </c>
       <c r="AC35" s="6">
         <f t="shared" si="93"/>
-        <v>0.1701</v>
+        <v>10.206</v>
       </c>
       <c r="AD35" s="6">
         <f t="shared" si="94"/>
-        <v>0.20141999999999999</v>
+        <v>12.085199999999999</v>
       </c>
       <c r="AE35" s="6">
         <f t="shared" si="95"/>
-        <v>0.20682</v>
+        <v>12.409199999999998</v>
       </c>
       <c r="AF35" s="6">
         <f t="shared" si="96"/>
-        <v>0.22031999999999999</v>
+        <v>13.219199999999999</v>
       </c>
       <c r="AG35" s="6">
         <f t="shared" si="97"/>
-        <v>0.23265000000000002</v>
+        <v>13.959000000000001</v>
       </c>
       <c r="AH35" s="6">
         <f t="shared" si="98"/>
-        <v>0.18414000000000003</v>
+        <v>11.048400000000001</v>
       </c>
       <c r="AK35" s="4" t="s">
         <v>2</v>
@@ -12070,40 +12068,40 @@
         <v>1</v>
       </c>
       <c r="Z39" s="6">
-        <f xml:space="preserve"> (B39 * N39) / 1000</f>
-        <v>0.41814000000000001</v>
+        <f xml:space="preserve"> (B39 * N39 * 60) / 1000</f>
+        <v>25.088399999999996</v>
       </c>
       <c r="AA39" s="6">
-        <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39) / 1000</f>
-        <v>0.38150000000000001</v>
+        <f t="shared" ref="AA39:AA40" si="106" xml:space="preserve"> (C39 * O39 * 60) / 1000</f>
+        <v>22.89</v>
       </c>
       <c r="AB39" s="6">
-        <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39) / 1000</f>
-        <v>0.33335999999999999</v>
+        <f t="shared" ref="AB39:AB40" si="107" xml:space="preserve"> (D39 * P39 * 60) / 1000</f>
+        <v>20.001600000000003</v>
       </c>
       <c r="AC39" s="6">
-        <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39) / 1000</f>
-        <v>0.34416000000000002</v>
+        <f t="shared" ref="AC39:AC40" si="108" xml:space="preserve"> (E39 * Q39 * 60) / 1000</f>
+        <v>20.649600000000003</v>
       </c>
       <c r="AD39" s="6">
-        <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39) / 1000</f>
-        <v>0.39476</v>
+        <f t="shared" ref="AD39:AD40" si="109" xml:space="preserve"> (F39 * R39 * 60) / 1000</f>
+        <v>23.685599999999997</v>
       </c>
       <c r="AE39" s="6">
-        <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39) / 1000</f>
-        <v>0.41399999999999998</v>
+        <f t="shared" ref="AE39:AE40" si="110" xml:space="preserve"> (G39 * S39 * 60) / 1000</f>
+        <v>24.84</v>
       </c>
       <c r="AF39" s="6">
-        <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39) / 1000</f>
-        <v>0.35856000000000005</v>
+        <f t="shared" ref="AF39:AF40" si="111" xml:space="preserve"> (H39 * T39 * 60) / 1000</f>
+        <v>21.513600000000004</v>
       </c>
       <c r="AG39" s="6">
-        <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39) / 1000</f>
-        <v>0.41256000000000004</v>
+        <f t="shared" ref="AG39:AG40" si="112" xml:space="preserve"> (I39 * U39 * 60) / 1000</f>
+        <v>24.753600000000002</v>
       </c>
       <c r="AH39" s="6">
-        <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39) / 1000</f>
-        <v>0.41616000000000003</v>
+        <f t="shared" ref="AH39:AH40" si="113" xml:space="preserve"> (J39 * V39 * 60) / 1000</f>
+        <v>24.969600000000003</v>
       </c>
       <c r="AK39" s="3" t="s">
         <v>1</v>
@@ -12210,40 +12208,40 @@
         <v>2</v>
       </c>
       <c r="Z40" s="6">
-        <f xml:space="preserve"> (B40 * N40) / 1000</f>
-        <v>0.32400000000000001</v>
+        <f xml:space="preserve"> (B40 * N40 * 60) / 1000</f>
+        <v>19.440000000000001</v>
       </c>
       <c r="AA40" s="6">
         <f t="shared" si="106"/>
-        <v>0.23069000000000001</v>
+        <v>13.8414</v>
       </c>
       <c r="AB40" s="6">
         <f t="shared" si="107"/>
-        <v>0.216</v>
+        <v>12.96</v>
       </c>
       <c r="AC40" s="6">
         <f t="shared" si="108"/>
-        <v>0.19872000000000001</v>
+        <v>11.923200000000001</v>
       </c>
       <c r="AD40" s="6">
         <f t="shared" si="109"/>
-        <v>0.18522</v>
+        <v>11.113200000000001</v>
       </c>
       <c r="AE40" s="6">
         <f t="shared" si="110"/>
-        <v>0.17732000000000001</v>
+        <v>10.639199999999999</v>
       </c>
       <c r="AF40" s="6">
         <f t="shared" si="111"/>
-        <v>0.22048000000000001</v>
+        <v>13.228800000000001</v>
       </c>
       <c r="AG40" s="6">
         <f t="shared" si="112"/>
-        <v>0.18615999999999999</v>
+        <v>11.169600000000001</v>
       </c>
       <c r="AH40" s="6">
         <f t="shared" si="113"/>
-        <v>0.20574000000000001</v>
+        <v>12.344400000000002</v>
       </c>
       <c r="AK40" s="4" t="s">
         <v>2</v>
